--- a/word_features/年/CHA,2020-1~2021-1,主题_词矩阵.xlsx
+++ b/word_features/年/CHA,2020-1~2021-1,主题_词矩阵.xlsx
@@ -14,17 +14,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t>一带</t>
   </si>
   <si>
+    <t>下线</t>
+  </si>
+  <si>
+    <t>不确定性</t>
+  </si>
+  <si>
     <t>专家</t>
   </si>
   <si>
     <t>专家组</t>
   </si>
   <si>
+    <t>专栏</t>
+  </si>
+  <si>
+    <t>专案组</t>
+  </si>
+  <si>
+    <t>专用</t>
+  </si>
+  <si>
     <t>世卫</t>
   </si>
   <si>
@@ -34,7 +49,10 @@
     <t>世纪</t>
   </si>
   <si>
-    <t>东风</t>
+    <t>东盟国家</t>
+  </si>
+  <si>
+    <t>两国人民</t>
   </si>
   <si>
     <t>临床试验</t>
@@ -46,49 +64,88 @@
     <t>主席</t>
   </si>
   <si>
-    <t>事业</t>
+    <t>主席国</t>
+  </si>
+  <si>
+    <t>主张</t>
+  </si>
+  <si>
+    <t>主旨</t>
+  </si>
+  <si>
+    <t>争端</t>
+  </si>
+  <si>
+    <t>事务</t>
   </si>
   <si>
     <t>互利</t>
   </si>
   <si>
-    <t>产业链</t>
-  </si>
-  <si>
-    <t>人员</t>
-  </si>
-  <si>
-    <t>人工智能</t>
+    <t>交流</t>
+  </si>
+  <si>
+    <t>交织</t>
+  </si>
+  <si>
+    <t>产品质量</t>
+  </si>
+  <si>
+    <t>产量</t>
+  </si>
+  <si>
+    <t>人口</t>
   </si>
   <si>
     <t>人权</t>
   </si>
   <si>
+    <t>人民</t>
+  </si>
+  <si>
     <t>人类</t>
   </si>
   <si>
     <t>人群</t>
   </si>
   <si>
+    <t>人道主义</t>
+  </si>
+  <si>
+    <t>人间正道</t>
+  </si>
+  <si>
+    <t>代价</t>
+  </si>
+  <si>
+    <t>仪征</t>
+  </si>
+  <si>
     <t>价格</t>
   </si>
   <si>
     <t>企业</t>
   </si>
   <si>
-    <t>优势</t>
-  </si>
-  <si>
     <t>伙伴</t>
   </si>
   <si>
     <t>伙伴关系</t>
   </si>
   <si>
+    <t>会员国</t>
+  </si>
+  <si>
     <t>会议</t>
   </si>
   <si>
-    <t>传染病</t>
+    <t>传染性</t>
+  </si>
+  <si>
+    <t>伪劣</t>
+  </si>
+  <si>
+    <t>住院</t>
   </si>
   <si>
     <t>体制</t>
@@ -97,19 +154,37 @@
     <t>体系</t>
   </si>
   <si>
+    <t>作出贡献</t>
+  </si>
+  <si>
+    <t>供应链</t>
+  </si>
+  <si>
+    <t>供货商</t>
+  </si>
+  <si>
     <t>保护主义</t>
   </si>
   <si>
+    <t>信厅</t>
+  </si>
+  <si>
     <t>信心</t>
   </si>
   <si>
     <t>倡议</t>
   </si>
   <si>
+    <t>债务</t>
+  </si>
+  <si>
     <t>儿童</t>
   </si>
   <si>
-    <t>元件</t>
+    <t>免疫学</t>
+  </si>
+  <si>
+    <t>党员</t>
   </si>
   <si>
     <t>全世界</t>
@@ -118,9 +193,6 @@
     <t>全人类</t>
   </si>
   <si>
-    <t>全国</t>
-  </si>
-  <si>
     <t>全球</t>
   </si>
   <si>
@@ -130,72 +202,159 @@
     <t>全球性</t>
   </si>
   <si>
-    <t>公众</t>
+    <t>全面</t>
   </si>
   <si>
     <t>公共卫生</t>
   </si>
   <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>公安机关</t>
+  </si>
+  <si>
     <t>公平</t>
   </si>
   <si>
+    <t>公平正义</t>
+  </si>
+  <si>
+    <t>共创</t>
+  </si>
+  <si>
     <t>共同体</t>
   </si>
   <si>
+    <t>共同利益</t>
+  </si>
+  <si>
+    <t>共商</t>
+  </si>
+  <si>
     <t>共识</t>
   </si>
   <si>
     <t>关系</t>
   </si>
   <si>
-    <t>关键</t>
-  </si>
-  <si>
-    <t>军队</t>
-  </si>
-  <si>
-    <t>冷链</t>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>内需</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>决议</t>
   </si>
   <si>
     <t>分歧</t>
   </si>
   <si>
+    <t>刊文</t>
+  </si>
+  <si>
     <t>利益</t>
   </si>
   <si>
-    <t>制度</t>
-  </si>
-  <si>
-    <t>力量</t>
+    <t>前景</t>
+  </si>
+  <si>
+    <t>剧烈运动</t>
+  </si>
+  <si>
+    <t>加班加点</t>
   </si>
   <si>
     <t>动力</t>
   </si>
   <si>
-    <t>区别</t>
-  </si>
-  <si>
-    <t>医务人员</t>
+    <t>势头</t>
+  </si>
+  <si>
+    <t>包容性</t>
+  </si>
+  <si>
+    <t>区域合作</t>
   </si>
   <si>
     <t>医用</t>
   </si>
   <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>医药</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>单日</t>
+  </si>
+  <si>
     <t>单边主义</t>
   </si>
   <si>
+    <t>博会</t>
+  </si>
+  <si>
+    <t>博览会</t>
+  </si>
+  <si>
+    <t>卫生用品</t>
+  </si>
+  <si>
+    <t>卫生部长</t>
+  </si>
+  <si>
     <t>危机</t>
   </si>
   <si>
+    <t>厂名</t>
+  </si>
+  <si>
+    <t>厂址</t>
+  </si>
+  <si>
+    <t>厂家</t>
+  </si>
+  <si>
+    <t>厂房</t>
+  </si>
+  <si>
     <t>历史</t>
   </si>
   <si>
-    <t>原则</t>
+    <t>历史性</t>
+  </si>
+  <si>
+    <t>历史潮流</t>
   </si>
   <si>
     <t>原料</t>
   </si>
   <si>
+    <t>原材料</t>
+  </si>
+  <si>
+    <t>双方</t>
+  </si>
+  <si>
+    <t>双边</t>
+  </si>
+  <si>
+    <t>双边关系</t>
+  </si>
+  <si>
+    <t>发货</t>
+  </si>
+  <si>
+    <t>受试者</t>
+  </si>
+  <si>
     <t>变局</t>
   </si>
   <si>
@@ -205,10 +364,10 @@
     <t>口罩</t>
   </si>
   <si>
-    <t>合力</t>
-  </si>
-  <si>
-    <t>同志</t>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>同意书</t>
   </si>
   <si>
     <t>命运</t>
@@ -217,49 +376,118 @@
     <t>售价</t>
   </si>
   <si>
+    <t>因私</t>
+  </si>
+  <si>
     <t>团体</t>
   </si>
   <si>
     <t>团结合作</t>
   </si>
   <si>
+    <t>国务委员</t>
+  </si>
+  <si>
     <t>国家</t>
   </si>
   <si>
+    <t>国家标准</t>
+  </si>
+  <si>
+    <t>国情</t>
+  </si>
+  <si>
+    <t>国界</t>
+  </si>
+  <si>
+    <t>国药</t>
+  </si>
+  <si>
     <t>国际</t>
   </si>
   <si>
+    <t>国际事务</t>
+  </si>
+  <si>
+    <t>国际形势</t>
+  </si>
+  <si>
+    <t>国际法</t>
+  </si>
+  <si>
     <t>地区</t>
   </si>
   <si>
+    <t>地球</t>
+  </si>
+  <si>
     <t>场所</t>
   </si>
   <si>
-    <t>基础</t>
+    <t>垃圾</t>
+  </si>
+  <si>
+    <t>垃圾桶</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>基因组</t>
+  </si>
+  <si>
+    <t>基本准则</t>
   </si>
   <si>
     <t>外交</t>
   </si>
   <si>
+    <t>外交部长</t>
+  </si>
+  <si>
     <t>外层</t>
   </si>
   <si>
     <t>外科</t>
   </si>
   <si>
-    <t>大会</t>
-  </si>
-  <si>
-    <t>妇女</t>
-  </si>
-  <si>
-    <t>孩子</t>
+    <t>外长</t>
+  </si>
+  <si>
+    <t>大势</t>
+  </si>
+  <si>
+    <t>大变局</t>
+  </si>
+  <si>
+    <t>失业率</t>
+  </si>
+  <si>
+    <t>契机</t>
+  </si>
+  <si>
+    <t>女士们</t>
+  </si>
+  <si>
+    <t>嫌疑人</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>宏观政策</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+  </si>
+  <si>
+    <t>官员</t>
   </si>
   <si>
     <t>宪章</t>
   </si>
   <si>
-    <t>家长</t>
+    <t>容器</t>
   </si>
   <si>
     <t>密集</t>
@@ -268,28 +496,28 @@
     <t>对话</t>
   </si>
   <si>
-    <t>小儿麻痹症</t>
-  </si>
-  <si>
-    <t>小康社会</t>
-  </si>
-  <si>
-    <t>尺寸</t>
-  </si>
-  <si>
     <t>峰会</t>
   </si>
   <si>
-    <t>工作人员</t>
-  </si>
-  <si>
-    <t>工作者</t>
-  </si>
-  <si>
-    <t>市场</t>
-  </si>
-  <si>
-    <t>市场主体</t>
+    <t>峰值</t>
+  </si>
+  <si>
+    <t>工人</t>
+  </si>
+  <si>
+    <t>工信厅</t>
+  </si>
+  <si>
+    <t>市场供应</t>
+  </si>
+  <si>
+    <t>市场监管</t>
+  </si>
+  <si>
+    <t>市民</t>
+  </si>
+  <si>
+    <t>市面上</t>
   </si>
   <si>
     <t>平面</t>
@@ -298,31 +526,46 @@
     <t>序列</t>
   </si>
   <si>
+    <t>库存</t>
+  </si>
+  <si>
     <t>建议</t>
   </si>
   <si>
-    <t>形势</t>
+    <t>建设性</t>
+  </si>
+  <si>
+    <t>开幕式</t>
+  </si>
+  <si>
+    <t>开放市场</t>
+  </si>
+  <si>
+    <t>强权政治</t>
   </si>
   <si>
     <t>征程</t>
   </si>
   <si>
+    <t>微生物学</t>
+  </si>
+  <si>
     <t>心肺</t>
   </si>
   <si>
-    <t>思想</t>
-  </si>
-  <si>
-    <t>性能</t>
-  </si>
-  <si>
     <t>总书记</t>
   </si>
   <si>
-    <t>患者</t>
-  </si>
-  <si>
-    <t>情况</t>
+    <t>总干事</t>
+  </si>
+  <si>
+    <t>总理</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>恐怖主义</t>
   </si>
   <si>
     <t>成人</t>
@@ -331,31 +574,67 @@
     <t>成员国</t>
   </si>
   <si>
+    <t>成品</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
     <t>成果</t>
   </si>
   <si>
     <t>战略</t>
   </si>
   <si>
+    <t>战略伙伴</t>
+  </si>
+  <si>
     <t>战胜</t>
   </si>
   <si>
-    <t>技术</t>
+    <t>执法人员</t>
+  </si>
+  <si>
+    <t>投放市场</t>
+  </si>
+  <si>
+    <t>护目镜</t>
   </si>
   <si>
     <t>报告</t>
   </si>
   <si>
+    <t>措施</t>
+  </si>
+  <si>
+    <t>摇号</t>
+  </si>
+  <si>
+    <t>收运</t>
+  </si>
+  <si>
+    <t>攻关组</t>
+  </si>
+  <si>
+    <t>政客</t>
+  </si>
+  <si>
+    <t>政局</t>
+  </si>
+  <si>
     <t>政治</t>
   </si>
   <si>
+    <t>政治化</t>
+  </si>
+  <si>
     <t>政策</t>
   </si>
   <si>
     <t>效果</t>
   </si>
   <si>
-    <t>效率</t>
+    <t>敌人</t>
   </si>
   <si>
     <t>数字</t>
@@ -364,6 +643,9 @@
     <t>数据</t>
   </si>
   <si>
+    <t>数据安全</t>
+  </si>
+  <si>
     <t>文化</t>
   </si>
   <si>
@@ -373,16 +655,52 @@
     <t>方向</t>
   </si>
   <si>
+    <t>旅客</t>
+  </si>
+  <si>
+    <t>无尘</t>
+  </si>
+  <si>
+    <t>无菌</t>
+  </si>
+  <si>
+    <t>日产量</t>
+  </si>
+  <si>
+    <t>日益</t>
+  </si>
+  <si>
     <t>时代</t>
   </si>
   <si>
-    <t>时刻</t>
+    <t>景区</t>
+  </si>
+  <si>
+    <t>晶晶</t>
+  </si>
+  <si>
+    <t>智库</t>
+  </si>
+  <si>
+    <t>智能</t>
+  </si>
+  <si>
+    <t>月刊</t>
   </si>
   <si>
     <t>有效性</t>
   </si>
   <si>
-    <t>机制</t>
+    <t>有限公司</t>
+  </si>
+  <si>
+    <t>朋友圈</t>
+  </si>
+  <si>
+    <t>服贸会</t>
+  </si>
+  <si>
+    <t>机器</t>
   </si>
   <si>
     <t>机遇</t>
@@ -394,13 +712,25 @@
     <t>材质</t>
   </si>
   <si>
-    <t>染色</t>
+    <t>村民</t>
+  </si>
+  <si>
+    <t>条熔</t>
+  </si>
+  <si>
+    <t>条约</t>
+  </si>
+  <si>
+    <t>来源</t>
   </si>
   <si>
     <t>标准</t>
   </si>
   <si>
-    <t>核心</t>
+    <t>标识</t>
+  </si>
+  <si>
+    <t>核心作用</t>
   </si>
   <si>
     <t>核酸</t>
@@ -409,46 +739,130 @@
     <t>格局</t>
   </si>
   <si>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>案件</t>
+  </si>
+  <si>
     <t>棉布</t>
   </si>
   <si>
+    <t>棉纱</t>
+  </si>
+  <si>
+    <t>欧方</t>
+  </si>
+  <si>
+    <t>毒株</t>
+  </si>
+  <si>
+    <t>民众</t>
+  </si>
+  <si>
+    <t>民族主义</t>
+  </si>
+  <si>
+    <t>民用</t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
     <t>气候变化</t>
   </si>
   <si>
-    <t>气管</t>
-  </si>
-  <si>
-    <t>气阀</t>
-  </si>
-  <si>
     <t>水平</t>
   </si>
   <si>
+    <t>污名</t>
+  </si>
+  <si>
+    <t>注册商标</t>
+  </si>
+  <si>
+    <t>注册证</t>
+  </si>
+  <si>
+    <t>洁净车间</t>
+  </si>
+  <si>
     <t>活力</t>
   </si>
   <si>
     <t>活疫苗</t>
   </si>
   <si>
-    <t>爆珠</t>
-  </si>
-  <si>
-    <t>特色</t>
-  </si>
-  <si>
-    <t>环境</t>
+    <t>流感</t>
+  </si>
+  <si>
+    <t>流行病</t>
+  </si>
+  <si>
+    <t>清运</t>
+  </si>
+  <si>
+    <t>游客</t>
+  </si>
+  <si>
+    <t>滤材</t>
+  </si>
+  <si>
+    <t>潜力</t>
+  </si>
+  <si>
+    <t>潮流</t>
+  </si>
+  <si>
+    <t>焰火</t>
+  </si>
+  <si>
+    <t>熔喷料</t>
+  </si>
+  <si>
+    <t>版权所有</t>
+  </si>
+  <si>
+    <t>物资</t>
+  </si>
+  <si>
+    <t>理事会</t>
   </si>
   <si>
     <t>理念</t>
   </si>
   <si>
+    <t>理查德</t>
+  </si>
+  <si>
+    <t>生产商</t>
+  </si>
+  <si>
     <t>生产线</t>
   </si>
   <si>
+    <t>生产能力</t>
+  </si>
+  <si>
+    <t>生产量</t>
+  </si>
+  <si>
     <t>生物</t>
   </si>
   <si>
-    <t>疑似病例</t>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>用品</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>电视讲话</t>
   </si>
   <si>
     <t>疫情</t>
@@ -463,18 +877,48 @@
     <t>病例</t>
   </si>
   <si>
-    <t>病房</t>
-  </si>
-  <si>
     <t>病毒</t>
   </si>
   <si>
+    <t>病毒传播</t>
+  </si>
+  <si>
+    <t>病毒基因</t>
+  </si>
+  <si>
+    <t>病毒检测</t>
+  </si>
+  <si>
+    <t>痘痘</t>
+  </si>
+  <si>
+    <t>痤疮</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
     <t>监管局</t>
   </si>
   <si>
+    <t>监管部门</t>
+  </si>
+  <si>
+    <t>盛会</t>
+  </si>
+  <si>
     <t>目标</t>
   </si>
   <si>
+    <t>省工</t>
+  </si>
+  <si>
+    <t>知情</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
     <t>研究所</t>
   </si>
   <si>
@@ -484,136 +928,292 @@
     <t>社会主义</t>
   </si>
   <si>
-    <t>科学</t>
+    <t>社会制度</t>
+  </si>
+  <si>
+    <t>社区</t>
   </si>
   <si>
     <t>科学家</t>
   </si>
   <si>
-    <t>科技</t>
+    <t>科学界</t>
   </si>
   <si>
     <t>科研</t>
   </si>
   <si>
-    <t>秩序</t>
-  </si>
-  <si>
-    <t>精神</t>
+    <t>秘书长</t>
+  </si>
+  <si>
+    <t>窝点</t>
+  </si>
+  <si>
+    <t>立场</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>符合标准</t>
+  </si>
+  <si>
+    <t>管理局</t>
+  </si>
+  <si>
+    <t>纤维</t>
   </si>
   <si>
     <t>级别</t>
   </si>
   <si>
+    <t>纪录</t>
+  </si>
+  <si>
+    <t>纱布</t>
+  </si>
+  <si>
+    <t>纸尿裤</t>
+  </si>
+  <si>
+    <t>细菌</t>
+  </si>
+  <si>
     <t>经济</t>
   </si>
   <si>
     <t>经济体</t>
   </si>
   <si>
+    <t>经济学家</t>
+  </si>
+  <si>
     <t>经济社会</t>
   </si>
   <si>
+    <t>经贸</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
+    <t>统计数据</t>
+  </si>
+  <si>
+    <t>维护和平</t>
+  </si>
+  <si>
+    <t>维护者</t>
+  </si>
+  <si>
     <t>绿色</t>
   </si>
   <si>
+    <t>缔约方</t>
+  </si>
+  <si>
+    <t>缺口</t>
+  </si>
+  <si>
     <t>耳带</t>
   </si>
   <si>
-    <t>职业</t>
+    <t>股份</t>
   </si>
   <si>
     <t>肺炎</t>
   </si>
   <si>
-    <t>能力</t>
-  </si>
-  <si>
-    <t>脊髓灰质炎</t>
+    <t>背景</t>
   </si>
   <si>
     <t>脸型</t>
   </si>
   <si>
+    <t>腺病毒</t>
+  </si>
+  <si>
+    <t>致力于</t>
+  </si>
+  <si>
+    <t>药业</t>
+  </si>
+  <si>
+    <t>药店</t>
+  </si>
+  <si>
+    <t>药房</t>
+  </si>
+  <si>
     <t>药物</t>
   </si>
   <si>
-    <t>规划</t>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>行径</t>
+  </si>
+  <si>
+    <t>观众</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>警方</t>
   </si>
   <si>
     <t>议程</t>
   </si>
   <si>
-    <t>记者</t>
+    <t>记者会</t>
   </si>
   <si>
     <t>讲话</t>
   </si>
   <si>
+    <t>论坛</t>
+  </si>
+  <si>
+    <t>试生产</t>
+  </si>
+  <si>
+    <t>负增长</t>
+  </si>
+  <si>
+    <t>负面</t>
+  </si>
+  <si>
     <t>贡献</t>
   </si>
   <si>
+    <t>财政政策</t>
+  </si>
+  <si>
+    <t>财政部长</t>
+  </si>
+  <si>
+    <t>责任编辑</t>
+  </si>
+  <si>
+    <t>货源</t>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>贸易量</t>
+  </si>
+  <si>
+    <t>资质</t>
+  </si>
+  <si>
+    <t>赤字</t>
+  </si>
+  <si>
+    <t>跨界</t>
+  </si>
+  <si>
+    <t>车辆</t>
+  </si>
+  <si>
+    <t>车间</t>
+  </si>
+  <si>
+    <t>过敏症</t>
+  </si>
+  <si>
+    <t>进程</t>
+  </si>
+  <si>
+    <t>逆流</t>
+  </si>
+  <si>
     <t>透气</t>
   </si>
   <si>
     <t>通气</t>
   </si>
   <si>
+    <t>通讯员</t>
+  </si>
+  <si>
     <t>通风</t>
   </si>
   <si>
-    <t>道路</t>
+    <t>酒精</t>
   </si>
   <si>
     <t>金砖</t>
   </si>
   <si>
+    <t>金融危机</t>
+  </si>
+  <si>
     <t>防护性</t>
   </si>
   <si>
-    <t>阶段</t>
+    <t>防护服</t>
+  </si>
+  <si>
+    <t>防护用品</t>
   </si>
   <si>
     <t>阻力</t>
   </si>
   <si>
-    <t>降温</t>
+    <t>雄心</t>
+  </si>
+  <si>
+    <t>需求量</t>
+  </si>
+  <si>
+    <t>霸权主义</t>
   </si>
   <si>
     <t>静电</t>
   </si>
   <si>
+    <t>非传统</t>
+  </si>
+  <si>
     <t>韧性</t>
   </si>
   <si>
+    <t>项目</t>
+  </si>
+  <si>
     <t>领域</t>
   </si>
   <si>
-    <t>领导</t>
-  </si>
-  <si>
     <t>领导人</t>
   </si>
   <si>
-    <t>颗粒</t>
+    <t>频道</t>
   </si>
   <si>
     <t>颗粒物</t>
   </si>
   <si>
-    <t>风险</t>
-  </si>
-  <si>
     <t>飞沫</t>
   </si>
   <si>
-    <t>高质量</t>
-  </si>
-  <si>
-    <t>高风险</t>
+    <t>首席</t>
+  </si>
+  <si>
+    <t>高价</t>
+  </si>
+  <si>
+    <t>高层</t>
+  </si>
+  <si>
+    <t>鼻梁</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>127.3274273873649</v>
+        <v>35.72859431205912</v>
       </c>
       <c r="C2">
-        <v>43.3529751698214</v>
+        <v>0.3752726261481098</v>
       </c>
       <c r="D2">
-        <v>45.25096719777414</v>
+        <v>15.9521929791167</v>
       </c>
       <c r="E2">
-        <v>61.59708851360664</v>
+        <v>52.5970604976515</v>
       </c>
       <c r="F2">
-        <v>1055.294017215958</v>
+        <v>30.34926562027692</v>
       </c>
       <c r="G2">
-        <v>79.42652278394034</v>
+        <v>0.3590993696045831</v>
       </c>
       <c r="H2">
-        <v>0.3635388801638198</v>
+        <v>0.335251420841041</v>
       </c>
       <c r="I2">
-        <v>1.671929782369342</v>
+        <v>0.3438447008627986</v>
       </c>
       <c r="J2">
-        <v>245.3316151769714</v>
+        <v>42.38275019931245</v>
       </c>
       <c r="K2">
-        <v>524.3172651176412</v>
+        <v>161.2673539131995</v>
       </c>
       <c r="L2">
-        <v>89.28037046817484</v>
+        <v>16.82342556545829</v>
       </c>
       <c r="M2">
-        <v>63.33222043991979</v>
+        <v>7.947948497616022</v>
       </c>
       <c r="N2">
-        <v>122.7946303631931</v>
+        <v>13.40851748076119</v>
       </c>
       <c r="O2">
-        <v>37.59669138425415</v>
+        <v>21.9626984005985</v>
       </c>
       <c r="P2">
-        <v>107.2680500261215</v>
+        <v>37.28646726946154</v>
       </c>
       <c r="Q2">
-        <v>33.29884567699913</v>
+        <v>84.81374383133389</v>
       </c>
       <c r="R2">
-        <v>652.2855631748</v>
+        <v>3.593193897872966</v>
       </c>
       <c r="S2">
-        <v>0.4247154632513603</v>
+        <v>12.78870413077593</v>
       </c>
       <c r="T2">
-        <v>2.004401196311221</v>
+        <v>6.217801017264274</v>
       </c>
       <c r="U2">
-        <v>189.7625139866998</v>
+        <v>3.339822478298399</v>
       </c>
       <c r="V2">
-        <v>158.6707982698562</v>
+        <v>11.88919113175893</v>
       </c>
       <c r="W2">
-        <v>54.28372791391073</v>
+        <v>16.36388960459395</v>
       </c>
       <c r="X2">
-        <v>78.33020020945355</v>
+        <v>47.43700766825433</v>
       </c>
       <c r="Y2">
-        <v>256.5324173794347</v>
+        <v>6.884373028245591</v>
       </c>
       <c r="Z2">
-        <v>21.96869451382853</v>
+        <v>0.3449841386386343</v>
       </c>
       <c r="AA2">
-        <v>52.324046178597</v>
+        <v>0.397855737785105</v>
       </c>
       <c r="AB2">
-        <v>251.5470565268257</v>
+        <v>16.34087259388087</v>
       </c>
       <c r="AC2">
-        <v>50.33177717059336</v>
+        <v>13.10617961768636</v>
       </c>
       <c r="AD2">
-        <v>151.1159358051794</v>
+        <v>117.500751521467</v>
       </c>
       <c r="AE2">
-        <v>204.2515410896877</v>
+        <v>82.5612491048976</v>
       </c>
       <c r="AF2">
-        <v>0.3402330711840252</v>
+        <v>23.0315636334166</v>
       </c>
       <c r="AG2">
-        <v>0.3337677075455988</v>
+        <v>7.500895341522581</v>
       </c>
       <c r="AH2">
-        <v>68.58294264454113</v>
+        <v>3.246015830773587</v>
       </c>
       <c r="AI2">
-        <v>52.3184599384474</v>
+        <v>9.494947124456347</v>
       </c>
       <c r="AJ2">
-        <v>227.3598531904496</v>
+        <v>0.3362268471479287</v>
       </c>
       <c r="AK2">
-        <v>1518.87090364998</v>
+        <v>0.3668507933586279</v>
       </c>
       <c r="AL2">
-        <v>83.32367263076631</v>
+        <v>0.4352338481690543</v>
       </c>
       <c r="AM2">
-        <v>74.32624831386319</v>
+        <v>18.24460803423771</v>
       </c>
       <c r="AN2">
-        <v>0.3436421899918959</v>
+        <v>13.53259212113643</v>
       </c>
       <c r="AO2">
-        <v>204.4368174509887</v>
+        <v>2.364640498410713</v>
       </c>
       <c r="AP2">
-        <v>94.57591019289687</v>
+        <v>50.78355080962994</v>
       </c>
       <c r="AQ2">
-        <v>356.3277506515029</v>
+        <v>9.91266867956382</v>
       </c>
       <c r="AR2">
-        <v>108.6054897008608</v>
+        <v>0.3359754138012347</v>
       </c>
       <c r="AS2">
-        <v>318.359308790518</v>
+        <v>10.25671498105814</v>
       </c>
       <c r="AT2">
-        <v>132.4993480718804</v>
+        <v>14.26308401115817</v>
       </c>
       <c r="AU2">
-        <v>10.29051633507757</v>
+        <v>39.14709313980831</v>
       </c>
       <c r="AV2">
-        <v>0.3568548391961887</v>
+        <v>8.141911003458713</v>
       </c>
       <c r="AW2">
-        <v>51.32479093457388</v>
+        <v>21.63783541095358</v>
       </c>
       <c r="AX2">
-        <v>125.1611117580448</v>
+        <v>0.35310672794319</v>
       </c>
       <c r="AY2">
-        <v>133.2362954155505</v>
+        <v>11.21664805468129</v>
       </c>
       <c r="AZ2">
-        <v>251.5122602802755</v>
+        <v>0.3358867887756501</v>
       </c>
       <c r="BA2">
-        <v>107.2018721833588</v>
+        <v>26.78836289980271</v>
       </c>
       <c r="BB2">
-        <v>3.389880793076446</v>
+        <v>28.40303005957257</v>
       </c>
       <c r="BC2">
-        <v>16.30867014251936</v>
+        <v>10.23009880523983</v>
       </c>
       <c r="BD2">
-        <v>0.3446316467495111</v>
+        <v>0.3704235965299248</v>
       </c>
       <c r="BE2">
-        <v>80.32650798968783</v>
+        <v>2.563923689482159</v>
       </c>
       <c r="BF2">
-        <v>189.2329877176578</v>
+        <v>0.3516238742929806</v>
       </c>
       <c r="BG2">
-        <v>268.2930483247872</v>
+        <v>18.71558276753112</v>
       </c>
       <c r="BH2">
-        <v>89.74563518794923</v>
+        <v>9.24638694289359</v>
       </c>
       <c r="BI2">
-        <v>0.3456935123499051</v>
+        <v>223.4690331551499</v>
       </c>
       <c r="BJ2">
-        <v>29.33030915112962</v>
+        <v>23.07330231429444</v>
       </c>
       <c r="BK2">
-        <v>0.3404721643042484</v>
+        <v>15.23352950910093</v>
       </c>
       <c r="BL2">
-        <v>0.3575497410477387</v>
+        <v>48.4910981988283</v>
       </c>
       <c r="BM2">
-        <v>68.75672228151279</v>
+        <v>51.91508696885571</v>
       </c>
       <c r="BN2">
-        <v>156.3040763191302</v>
+        <v>0.8115349702379937</v>
       </c>
       <c r="BO2">
-        <v>323.3235777606765</v>
+        <v>0.347141343967017</v>
       </c>
       <c r="BP2">
-        <v>0.3378727585694543</v>
+        <v>17.74413201910678</v>
       </c>
       <c r="BQ2">
-        <v>3.10242836666139</v>
+        <v>8.986942665300369</v>
       </c>
       <c r="BR2">
-        <v>70.32697652221046</v>
+        <v>7.742558112369825</v>
       </c>
       <c r="BS2">
-        <v>1246.978344088091</v>
+        <v>52.30237659295038</v>
       </c>
       <c r="BT2">
-        <v>1210.169359473461</v>
+        <v>6.809826840829121</v>
       </c>
       <c r="BU2">
-        <v>319.8345271485799</v>
+        <v>6.946287588724676</v>
       </c>
       <c r="BV2">
-        <v>0.3401060461288071</v>
+        <v>25.84203487169524</v>
       </c>
       <c r="BW2">
-        <v>179.8317259571404</v>
+        <v>57.49285744906455</v>
       </c>
       <c r="BX2">
-        <v>112.3286609703187</v>
+        <v>44.95474087365668</v>
       </c>
       <c r="BY2">
-        <v>0.3393508914288164</v>
+        <v>8.458623715520979</v>
       </c>
       <c r="BZ2">
-        <v>0.3363626533348127</v>
+        <v>0.4824529151689654</v>
       </c>
       <c r="CA2">
-        <v>81.12682770692993</v>
+        <v>7.077883748684963</v>
       </c>
       <c r="CB2">
-        <v>41.87345267228927</v>
+        <v>11.99810157371779</v>
       </c>
       <c r="CC2">
-        <v>0.4444915600806301</v>
+        <v>5.387615406495084</v>
       </c>
       <c r="CD2">
-        <v>47.33298852356197</v>
+        <v>27.69196455891933</v>
       </c>
       <c r="CE2">
-        <v>0.3409963810539022</v>
+        <v>12.93633190968646</v>
       </c>
       <c r="CF2">
-        <v>12.98416567925035</v>
+        <v>0.3360073395590834</v>
       </c>
       <c r="CG2">
-        <v>110.3165055170893</v>
+        <v>0.3611317616700418</v>
       </c>
       <c r="CH2">
-        <v>0.3626301725093865</v>
+        <v>23.90951941848956</v>
       </c>
       <c r="CI2">
-        <v>53.32075777487967</v>
+        <v>10.81273616263934</v>
       </c>
       <c r="CJ2">
-        <v>0.3354250488221634</v>
+        <v>4.097010995013648</v>
       </c>
       <c r="CK2">
-        <v>147.3304082262664</v>
+        <v>4.394986979317677</v>
       </c>
       <c r="CL2">
-        <v>0.3504261564252872</v>
+        <v>0.3416545314889525</v>
       </c>
       <c r="CM2">
-        <v>110.8810837079381</v>
+        <v>0.3654533377703287</v>
       </c>
       <c r="CN2">
-        <v>178.0122408062002</v>
+        <v>2.544181559302332</v>
       </c>
       <c r="CO2">
-        <v>58.30442111561725</v>
+        <v>0.3863819111459899</v>
       </c>
       <c r="CP2">
-        <v>0.3356721794934517</v>
+        <v>30.13760606244023</v>
       </c>
       <c r="CQ2">
-        <v>12.55599381012624</v>
+        <v>15.12669719603799</v>
       </c>
       <c r="CR2">
-        <v>32.94098821608387</v>
+        <v>66.68041646696183</v>
       </c>
       <c r="CS2">
-        <v>104.7743128207792</v>
+        <v>20.41473885040714</v>
       </c>
       <c r="CT2">
-        <v>51.32466926208542</v>
+        <v>0.337596142891519</v>
       </c>
       <c r="CU2">
-        <v>0.3368188738356448</v>
+        <v>11.86484140820289</v>
       </c>
       <c r="CV2">
-        <v>59.92984267741195</v>
+        <v>34.34837145950411</v>
       </c>
       <c r="CW2">
-        <v>0.3900456829710165</v>
+        <v>0.3342232869913604</v>
       </c>
       <c r="CX2">
-        <v>204.3084292304844</v>
+        <v>0.3382246678533835</v>
       </c>
       <c r="CY2">
-        <v>0.4370233733316901</v>
+        <v>0.3484288332648332</v>
       </c>
       <c r="CZ2">
-        <v>19.84806234271529</v>
+        <v>0.3486822503500994</v>
       </c>
       <c r="DA2">
-        <v>0.3345607037915891</v>
+        <v>51.23034840719959</v>
       </c>
       <c r="DB2">
-        <v>48.30706125657976</v>
+        <v>10.09220176938298</v>
       </c>
       <c r="DC2">
-        <v>197.4542390040245</v>
+        <v>2.63166471439785</v>
       </c>
       <c r="DD2">
-        <v>261.2380762286818</v>
+        <v>0.3437770113376236</v>
       </c>
       <c r="DE2">
-        <v>185.080171374133</v>
+        <v>0.3443232597401847</v>
       </c>
       <c r="DF2">
-        <v>213.2821389823212</v>
+        <v>50.87546634080664</v>
       </c>
       <c r="DG2">
-        <v>28.2717591903901</v>
+        <v>5.289976970735216</v>
       </c>
       <c r="DH2">
-        <v>224.2448141390135</v>
+        <v>5.896571951778677</v>
       </c>
       <c r="DI2">
-        <v>251.6192710420131</v>
+        <v>0.3553129878717592</v>
       </c>
       <c r="DJ2">
-        <v>0.3519065896805249</v>
+        <v>3.208481130785342</v>
       </c>
       <c r="DK2">
-        <v>23.8070769893183</v>
+        <v>7.570555065557151</v>
       </c>
       <c r="DL2">
-        <v>241.2060992412199</v>
+        <v>27.12628866860982</v>
       </c>
       <c r="DM2">
-        <v>72.09318811413732</v>
+        <v>0.3618053942279431</v>
       </c>
       <c r="DN2">
-        <v>176.166472408898</v>
+        <v>0.3614540710624349</v>
       </c>
       <c r="DO2">
-        <v>575.9447630324275</v>
+        <v>2.149037681973928</v>
       </c>
       <c r="DP2">
-        <v>108.5468669336828</v>
+        <v>51.82928782157312</v>
       </c>
       <c r="DQ2">
-        <v>263.3082837520852</v>
+        <v>0.3388756530489252</v>
       </c>
       <c r="DR2">
-        <v>91.07120980887267</v>
+        <v>2.020431273408536</v>
       </c>
       <c r="DS2">
-        <v>9.089466695542152</v>
+        <v>0.5203455325736225</v>
       </c>
       <c r="DT2">
-        <v>154.0256995054317</v>
+        <v>13.62185823462408</v>
       </c>
       <c r="DU2">
-        <v>98.2656050387299</v>
+        <v>6.044753681767896</v>
       </c>
       <c r="DV2">
-        <v>3.250709559942544</v>
+        <v>182.1233420313191</v>
       </c>
       <c r="DW2">
-        <v>0.3361600587094171</v>
+        <v>0.3493270653817279</v>
       </c>
       <c r="DX2">
-        <v>0.3335002284923888</v>
+        <v>4.881355260514902</v>
       </c>
       <c r="DY2">
-        <v>17.84906103004018</v>
+        <v>4.716312790715537</v>
       </c>
       <c r="DZ2">
-        <v>184.2175143719201</v>
+        <v>5.140570088684951</v>
       </c>
       <c r="EA2">
-        <v>0.3689776794059487</v>
+        <v>196.6235453619271</v>
       </c>
       <c r="EB2">
-        <v>141.305213702732</v>
+        <v>4.783047857675685</v>
       </c>
       <c r="EC2">
-        <v>0.3347746486167977</v>
+        <v>6.168212584089452</v>
       </c>
       <c r="ED2">
-        <v>115.3292508483675</v>
+        <v>6.561166104685247</v>
       </c>
       <c r="EE2">
-        <v>0.3363453546270369</v>
+        <v>53.86912205841712</v>
       </c>
       <c r="EF2">
-        <v>0.3385851750120464</v>
+        <v>10.1276726154605</v>
       </c>
       <c r="EG2">
-        <v>88.3860166079033</v>
+        <v>0.3851265040384715</v>
       </c>
       <c r="EH2">
-        <v>73.32121371969994</v>
+        <v>0.376684762586839</v>
       </c>
       <c r="EI2">
-        <v>0.3689562573578404</v>
+        <v>0.3376872826869078</v>
       </c>
       <c r="EJ2">
-        <v>0.3333630754531561</v>
+        <v>0.3442940296075431</v>
       </c>
       <c r="EK2">
-        <v>74.23444119743074</v>
+        <v>5.370662724835004</v>
       </c>
       <c r="EL2">
-        <v>126.9960398981191</v>
+        <v>3.207802202851605</v>
       </c>
       <c r="EM2">
-        <v>239.2942731215537</v>
+        <v>13.65553979370495</v>
       </c>
       <c r="EN2">
-        <v>0.3456268103677602</v>
+        <v>4.021277693594903</v>
       </c>
       <c r="EO2">
-        <v>82.29978551460157</v>
+        <v>0.3579543297805084</v>
       </c>
       <c r="EP2">
-        <v>0.3339538385086284</v>
+        <v>0.3429202387552131</v>
       </c>
       <c r="EQ2">
-        <v>2480.961305821425</v>
+        <v>6.352684191091397</v>
       </c>
       <c r="ER2">
-        <v>342.2427767863347</v>
+        <v>6.605226871474215</v>
       </c>
       <c r="ES2">
-        <v>22.10046647879699</v>
+        <v>10.68863023228896</v>
       </c>
       <c r="ET2">
-        <v>0.3769007112555096</v>
+        <v>6.016426097443789</v>
       </c>
       <c r="EU2">
-        <v>0.3546889631737253</v>
+        <v>11.65124607242298</v>
       </c>
       <c r="EV2">
-        <v>102.0728760694678</v>
+        <v>3.326772258006383</v>
       </c>
       <c r="EW2">
-        <v>0.3386314566119046</v>
+        <v>0.3369930057515612</v>
       </c>
       <c r="EX2">
-        <v>157.8541560068205</v>
+        <v>0.3567660936226315</v>
       </c>
       <c r="EY2">
-        <v>35.89626454504559</v>
+        <v>7.592495188397637</v>
       </c>
       <c r="EZ2">
-        <v>545.6552842994856</v>
+        <v>5.72104391303734</v>
       </c>
       <c r="FA2">
-        <v>121.325502329278</v>
+        <v>19.30987996994864</v>
       </c>
       <c r="FB2">
-        <v>162.4853656366826</v>
+        <v>6.896319021137844</v>
       </c>
       <c r="FC2">
-        <v>146.1312690879528</v>
+        <v>0.3383504708170891</v>
       </c>
       <c r="FD2">
-        <v>444.6550369744572</v>
+        <v>0.8673285694385064</v>
       </c>
       <c r="FE2">
-        <v>72.30811163762056</v>
+        <v>24.11737196255434</v>
       </c>
       <c r="FF2">
-        <v>102.8736130124603</v>
+        <v>28.05579871640897</v>
       </c>
       <c r="FG2">
-        <v>229.7135039528394</v>
+        <v>7.592392760871101</v>
       </c>
       <c r="FH2">
-        <v>0.3360659557797299</v>
+        <v>0.361995292115717</v>
       </c>
       <c r="FI2">
-        <v>1473.258616717448</v>
+        <v>0.340398903680991</v>
       </c>
       <c r="FJ2">
-        <v>61.30588776914431</v>
+        <v>0.3740495226539262</v>
       </c>
       <c r="FK2">
-        <v>171.7350502159588</v>
+        <v>0.3476700984347281</v>
       </c>
       <c r="FL2">
-        <v>160.2101010301251</v>
+        <v>0.3660347542538221</v>
       </c>
       <c r="FM2">
-        <v>94.84782003259988</v>
+        <v>0.3387173000283439</v>
       </c>
       <c r="FN2">
-        <v>0.3378483905769917</v>
+        <v>0.3393441781747329</v>
       </c>
       <c r="FO2">
-        <v>1.59054772415094</v>
+        <v>8.131096958544898</v>
       </c>
       <c r="FP2">
-        <v>346.0910222361148</v>
+        <v>0.3749057799640972</v>
       </c>
       <c r="FQ2">
-        <v>211.4831668917873</v>
+        <v>25.56576359603173</v>
       </c>
       <c r="FR2">
-        <v>0.3597694980416868</v>
+        <v>3.762048986350429</v>
       </c>
       <c r="FS2">
-        <v>0.333644667625201</v>
+        <v>11.13093283630238</v>
       </c>
       <c r="FT2">
-        <v>29.2576104896428</v>
+        <v>2.08461727733005</v>
       </c>
       <c r="FU2">
-        <v>89.21028725786148</v>
+        <v>2.26170674047913</v>
       </c>
       <c r="FV2">
-        <v>59.33045609523747</v>
+        <v>19.88211659113862</v>
       </c>
       <c r="FW2">
-        <v>214.2765916019276</v>
+        <v>3.662324048153941</v>
       </c>
       <c r="FX2">
-        <v>72.26801048182013</v>
+        <v>0.3613788501032105</v>
       </c>
       <c r="FY2">
-        <v>187.3452373033366</v>
+        <v>35.04897981435993</v>
       </c>
       <c r="FZ2">
-        <v>0.3337435453766731</v>
+        <v>12.78069483081694</v>
       </c>
       <c r="GA2">
-        <v>0.3740715246197176</v>
+        <v>30.1350167975052</v>
       </c>
       <c r="GB2">
-        <v>0.335583038331485</v>
+        <v>57.68111293207749</v>
       </c>
       <c r="GC2">
-        <v>79.60749586398302</v>
+        <v>3.131154004446096</v>
       </c>
       <c r="GD2">
-        <v>68.3329808858384</v>
+        <v>0.3567388247748854</v>
       </c>
       <c r="GE2">
-        <v>0.3333789399457001</v>
+        <v>12.03428506158449</v>
       </c>
       <c r="GF2">
-        <v>76.82683490440684</v>
+        <v>0.3432542425689589</v>
       </c>
       <c r="GG2">
-        <v>0.4149201703407754</v>
+        <v>18.5649303869161</v>
       </c>
       <c r="GH2">
-        <v>0.340559010221486</v>
+        <v>38.73918405071235</v>
       </c>
       <c r="GI2">
-        <v>0.3352344920052203</v>
+        <v>49.56483068612027</v>
       </c>
       <c r="GJ2">
-        <v>36.32529874912363</v>
+        <v>8.694208322367905</v>
       </c>
       <c r="GK2">
-        <v>387.0398046027453</v>
+        <v>36.36939325850245</v>
       </c>
       <c r="GL2">
-        <v>170.2096429123547</v>
+        <v>0.346289284238293</v>
       </c>
       <c r="GM2">
-        <v>173.3229038337257</v>
+        <v>0.3407984546042366</v>
       </c>
       <c r="GN2">
-        <v>0.3393361481383858</v>
+        <v>0.3601348047076925</v>
       </c>
       <c r="GO2">
-        <v>0.3339415523469655</v>
+        <v>42.51938222249844</v>
       </c>
       <c r="GP2">
-        <v>73.51249504559264</v>
+        <v>45.05851038881814</v>
       </c>
       <c r="GQ2">
-        <v>0.3379999340456649</v>
+        <v>0.3371913988057654</v>
       </c>
       <c r="GR2">
-        <v>111.7191401572283</v>
+        <v>0.3360714182279603</v>
       </c>
       <c r="GS2">
-        <v>0.3370768728548421</v>
+        <v>2.618485977553647</v>
+      </c>
+      <c r="GT2">
+        <v>26.34853336456731</v>
+      </c>
+      <c r="GU2">
+        <v>2.477056920427297</v>
+      </c>
+      <c r="GV2">
+        <v>58.13826146959534</v>
+      </c>
+      <c r="GW2">
+        <v>10.86875207369755</v>
+      </c>
+      <c r="GX2">
+        <v>24.22089368618602</v>
+      </c>
+      <c r="GY2">
+        <v>6.886766413227966</v>
+      </c>
+      <c r="GZ2">
+        <v>7.325167798074875</v>
+      </c>
+      <c r="HA2">
+        <v>31.39596812026477</v>
+      </c>
+      <c r="HB2">
+        <v>37.09310156409919</v>
+      </c>
+      <c r="HC2">
+        <v>5.698613447336654</v>
+      </c>
+      <c r="HD2">
+        <v>12.20758558059032</v>
+      </c>
+      <c r="HE2">
+        <v>210.7544063550239</v>
+      </c>
+      <c r="HF2">
+        <v>17.45967780921995</v>
+      </c>
+      <c r="HG2">
+        <v>0.3534947120478627</v>
+      </c>
+      <c r="HH2">
+        <v>0.3354576358069562</v>
+      </c>
+      <c r="HI2">
+        <v>0.340909105948457</v>
+      </c>
+      <c r="HJ2">
+        <v>0.33900692092</v>
+      </c>
+      <c r="HK2">
+        <v>13.28867005974604</v>
+      </c>
+      <c r="HL2">
+        <v>51.86986261504109</v>
+      </c>
+      <c r="HM2">
+        <v>0.3397925843450598</v>
+      </c>
+      <c r="HN2">
+        <v>6.525371235781358</v>
+      </c>
+      <c r="HO2">
+        <v>9.498562371835529</v>
+      </c>
+      <c r="HP2">
+        <v>0.3652763883841101</v>
+      </c>
+      <c r="HQ2">
+        <v>2.199511567201407</v>
+      </c>
+      <c r="HR2">
+        <v>11.14470182440927</v>
+      </c>
+      <c r="HS2">
+        <v>0.3739351956923185</v>
+      </c>
+      <c r="HT2">
+        <v>0.7743329703872931</v>
+      </c>
+      <c r="HU2">
+        <v>14.94410768494076</v>
+      </c>
+      <c r="HV2">
+        <v>0.3959135331409664</v>
+      </c>
+      <c r="HW2">
+        <v>26.49490904247129</v>
+      </c>
+      <c r="HX2">
+        <v>0.3705124352422031</v>
+      </c>
+      <c r="HY2">
+        <v>0.3452562314829253</v>
+      </c>
+      <c r="HZ2">
+        <v>0.3497136353201894</v>
+      </c>
+      <c r="IA2">
+        <v>0.3356140700703923</v>
+      </c>
+      <c r="IB2">
+        <v>5.310441163802367</v>
+      </c>
+      <c r="IC2">
+        <v>47.2752023587926</v>
+      </c>
+      <c r="ID2">
+        <v>1.980757597319378</v>
+      </c>
+      <c r="IE2">
+        <v>0.4192580908416147</v>
+      </c>
+      <c r="IF2">
+        <v>3.120919623431022</v>
+      </c>
+      <c r="IG2">
+        <v>0.382222688410124</v>
+      </c>
+      <c r="IH2">
+        <v>38.78865659533106</v>
+      </c>
+      <c r="II2">
+        <v>12.02281287245701</v>
+      </c>
+      <c r="IJ2">
+        <v>0.3604578190116963</v>
+      </c>
+      <c r="IK2">
+        <v>0.3405520026603728</v>
+      </c>
+      <c r="IL2">
+        <v>0.341302859068266</v>
+      </c>
+      <c r="IM2">
+        <v>3.207749458339918</v>
+      </c>
+      <c r="IN2">
+        <v>8.104962531168946</v>
+      </c>
+      <c r="IO2">
+        <v>71.26511522002498</v>
+      </c>
+      <c r="IP2">
+        <v>2.53035062648515</v>
+      </c>
+      <c r="IQ2">
+        <v>0.3402088162828568</v>
+      </c>
+      <c r="IR2">
+        <v>12.53314896445703</v>
+      </c>
+      <c r="IS2">
+        <v>21.80315121503951</v>
+      </c>
+      <c r="IT2">
+        <v>23.85127904362316</v>
+      </c>
+      <c r="IU2">
+        <v>6.195716894618648</v>
+      </c>
+      <c r="IV2">
+        <v>0.3362800413578677</v>
+      </c>
+      <c r="IW2">
+        <v>0.3368640911571411</v>
+      </c>
+      <c r="IX2">
+        <v>0.3348474389568353</v>
+      </c>
+      <c r="IY2">
+        <v>16.77674540454292</v>
+      </c>
+      <c r="IZ2">
+        <v>8.603029685671448</v>
+      </c>
+      <c r="JA2">
+        <v>14.17501385684051</v>
+      </c>
+      <c r="JB2">
+        <v>8.779119474134776</v>
+      </c>
+      <c r="JC2">
+        <v>0.3420390936547618</v>
+      </c>
+      <c r="JD2">
+        <v>0.3501267572881105</v>
+      </c>
+      <c r="JE2">
+        <v>0.335948206328572</v>
+      </c>
+      <c r="JF2">
+        <v>13.28316365338459</v>
+      </c>
+      <c r="JG2">
+        <v>8.849430380932668</v>
+      </c>
+      <c r="JH2">
+        <v>1.846370533756309</v>
+      </c>
+      <c r="JI2">
+        <v>0.3356611794383043</v>
+      </c>
+      <c r="JJ2">
+        <v>0.3418326628370384</v>
+      </c>
+      <c r="JK2">
+        <v>11.95939248760473</v>
+      </c>
+      <c r="JL2">
+        <v>8.084363148109107</v>
+      </c>
+      <c r="JM2">
+        <v>40.15917644125899</v>
+      </c>
+      <c r="JN2">
+        <v>2.720129615469021</v>
+      </c>
+      <c r="JO2">
+        <v>0.4111928834633055</v>
+      </c>
+      <c r="JP2">
+        <v>0.3413341903181237</v>
+      </c>
+      <c r="JQ2">
+        <v>0.593395945565484</v>
+      </c>
+      <c r="JR2">
+        <v>0.3358664787809763</v>
+      </c>
+      <c r="JS2">
+        <v>35.78947376833718</v>
+      </c>
+      <c r="JT2">
+        <v>2.954997159730604</v>
+      </c>
+      <c r="JU2">
+        <v>0.3837046219066421</v>
+      </c>
+      <c r="JV2">
+        <v>0.3497909333527702</v>
+      </c>
+      <c r="JW2">
+        <v>37.29850525944766</v>
+      </c>
+      <c r="JX2">
+        <v>4.075910770522085</v>
+      </c>
+      <c r="JY2">
+        <v>195.5318051842551</v>
+      </c>
+      <c r="JZ2">
+        <v>169.6514842347196</v>
+      </c>
+      <c r="KA2">
+        <v>34.6531529895002</v>
+      </c>
+      <c r="KB2">
+        <v>224.7751508208917</v>
+      </c>
+      <c r="KC2">
+        <v>137.6839557621515</v>
+      </c>
+      <c r="KD2">
+        <v>23.65590192307372</v>
+      </c>
+      <c r="KE2">
+        <v>3.771724173263939</v>
+      </c>
+      <c r="KF2">
+        <v>20.98237343361053</v>
+      </c>
+      <c r="KG2">
+        <v>0.3348114472069369</v>
+      </c>
+      <c r="KH2">
+        <v>0.3347816508494584</v>
+      </c>
+      <c r="KI2">
+        <v>0.3508397845249403</v>
+      </c>
+      <c r="KJ2">
+        <v>0.3375053391061509</v>
+      </c>
+      <c r="KK2">
+        <v>0.3561943141937766</v>
+      </c>
+      <c r="KL2">
+        <v>10.02032860850258</v>
+      </c>
+      <c r="KM2">
+        <v>30.73789019539486</v>
+      </c>
+      <c r="KN2">
+        <v>0.3352361752714189</v>
+      </c>
+      <c r="KO2">
+        <v>3.543968132600589</v>
+      </c>
+      <c r="KP2">
+        <v>0.4320253931389035</v>
+      </c>
+      <c r="KQ2">
+        <v>25.74346345168571</v>
+      </c>
+      <c r="KR2">
+        <v>66.44368761647563</v>
+      </c>
+      <c r="KS2">
+        <v>42.6094756917907</v>
+      </c>
+      <c r="KT2">
+        <v>3.328257077641693</v>
+      </c>
+      <c r="KU2">
+        <v>0.3681113546791968</v>
+      </c>
+      <c r="KV2">
+        <v>19.64067408469881</v>
+      </c>
+      <c r="KW2">
+        <v>2.268997208101989</v>
+      </c>
+      <c r="KX2">
+        <v>21.69433766150242</v>
+      </c>
+      <c r="KY2">
+        <v>15.08572372978241</v>
+      </c>
+      <c r="KZ2">
+        <v>0.335055749032079</v>
+      </c>
+      <c r="LA2">
+        <v>12.79367091136626</v>
+      </c>
+      <c r="LB2">
+        <v>4.862690565147767</v>
+      </c>
+      <c r="LC2">
+        <v>0.3393229522898913</v>
+      </c>
+      <c r="LD2">
+        <v>0.3912850674112491</v>
+      </c>
+      <c r="LE2">
+        <v>0.3505456590272897</v>
+      </c>
+      <c r="LF2">
+        <v>0.47404864438219</v>
+      </c>
+      <c r="LG2">
+        <v>11.39256134735547</v>
+      </c>
+      <c r="LH2">
+        <v>0.3432321591047253</v>
+      </c>
+      <c r="LI2">
+        <v>0.3493069957895419</v>
+      </c>
+      <c r="LJ2">
+        <v>0.356340326626523</v>
+      </c>
+      <c r="LK2">
+        <v>225.9263809627135</v>
+      </c>
+      <c r="LL2">
+        <v>19.06467450290218</v>
+      </c>
+      <c r="LM2">
+        <v>8.172978947409709</v>
+      </c>
+      <c r="LN2">
+        <v>23.74285865907676</v>
+      </c>
+      <c r="LO2">
+        <v>14.4603326220665</v>
+      </c>
+      <c r="LP2">
+        <v>41.36738583113691</v>
+      </c>
+      <c r="LQ2">
+        <v>10.26726006366112</v>
+      </c>
+      <c r="LR2">
+        <v>2.940932110991753</v>
+      </c>
+      <c r="LS2">
+        <v>2.600090515254725</v>
+      </c>
+      <c r="LT2">
+        <v>18.32151939357276</v>
+      </c>
+      <c r="LU2">
+        <v>2.386868598382362</v>
+      </c>
+      <c r="LV2">
+        <v>0.4101310185861953</v>
+      </c>
+      <c r="LW2">
+        <v>0.3351035857314603</v>
+      </c>
+      <c r="LX2">
+        <v>0.3598977753892616</v>
+      </c>
+      <c r="LY2">
+        <v>77.37398765287641</v>
+      </c>
+      <c r="LZ2">
+        <v>19.76245536187884</v>
+      </c>
+      <c r="MA2">
+        <v>0.3359628093509145</v>
+      </c>
+      <c r="MB2">
+        <v>2.243000243455049</v>
+      </c>
+      <c r="MC2">
+        <v>19.84475894761379</v>
+      </c>
+      <c r="MD2">
+        <v>0.3454608961373596</v>
+      </c>
+      <c r="ME2">
+        <v>0.3458105725777095</v>
+      </c>
+      <c r="MF2">
+        <v>0.340887373203023</v>
+      </c>
+      <c r="MG2">
+        <v>21.61581529214354</v>
+      </c>
+      <c r="MH2">
+        <v>0.3970011914858038</v>
+      </c>
+      <c r="MI2">
+        <v>8.568003538648783</v>
+      </c>
+      <c r="MJ2">
+        <v>41.80337039392742</v>
+      </c>
+      <c r="MK2">
+        <v>16.1736334217093</v>
+      </c>
+      <c r="ML2">
+        <v>0.5546674590458404</v>
+      </c>
+      <c r="MM2">
+        <v>15.06985701439986</v>
+      </c>
+      <c r="MN2">
+        <v>0.3518427858513454</v>
+      </c>
+      <c r="MO2">
+        <v>11.72845536604834</v>
+      </c>
+      <c r="MP2">
+        <v>14.68025317154716</v>
+      </c>
+      <c r="MQ2">
+        <v>20.21396549205897</v>
+      </c>
+      <c r="MR2">
+        <v>46.13179926466731</v>
+      </c>
+      <c r="MS2">
+        <v>0.3365423770477277</v>
+      </c>
+      <c r="MT2">
+        <v>3.469328442062515</v>
+      </c>
+      <c r="MU2">
+        <v>7.896288889371538</v>
+      </c>
+      <c r="MV2">
+        <v>30.63711139625559</v>
+      </c>
+      <c r="MW2">
+        <v>3.716847916099602</v>
+      </c>
+      <c r="MX2">
+        <v>2.939816224670922</v>
+      </c>
+      <c r="MY2">
+        <v>45.09663624697388</v>
+      </c>
+      <c r="MZ2">
+        <v>0.3453758206037494</v>
+      </c>
+      <c r="NA2">
+        <v>0.5662558501790693</v>
+      </c>
+      <c r="NB2">
+        <v>2.26029277023981</v>
+      </c>
+      <c r="NC2">
+        <v>0.3563160284970141</v>
+      </c>
+      <c r="ND2">
+        <v>4.685748854487824</v>
+      </c>
+      <c r="NE2">
+        <v>0.3839959391126708</v>
+      </c>
+      <c r="NF2">
+        <v>0.3463809374625831</v>
+      </c>
+      <c r="NG2">
+        <v>0.3599197788387439</v>
+      </c>
+      <c r="NH2">
+        <v>3.888813391544577</v>
+      </c>
+      <c r="NI2">
+        <v>15.0598792172089</v>
+      </c>
+      <c r="NJ2">
+        <v>5.009271459541806</v>
+      </c>
+      <c r="NK2">
+        <v>0.3380674990770118</v>
+      </c>
+      <c r="NL2">
+        <v>0.3663240696886235</v>
+      </c>
+      <c r="NM2">
+        <v>0.3474148213372472</v>
+      </c>
+      <c r="NN2">
+        <v>0.3555797059388942</v>
+      </c>
+      <c r="NO2">
+        <v>0.3497265966910256</v>
+      </c>
+      <c r="NP2">
+        <v>15.283877153914</v>
+      </c>
+      <c r="NQ2">
+        <v>5.777133533218685</v>
+      </c>
+      <c r="NR2">
+        <v>0.3345392106188634</v>
+      </c>
+      <c r="NS2">
+        <v>0.3880623014112097</v>
+      </c>
+      <c r="NT2">
+        <v>0.3509784433479057</v>
+      </c>
+      <c r="NU2">
+        <v>0.8734332303293755</v>
+      </c>
+      <c r="NV2">
+        <v>3.0783756487758</v>
+      </c>
+      <c r="NW2">
+        <v>0.3617400324139267</v>
+      </c>
+      <c r="NX2">
+        <v>2.436618966344568</v>
+      </c>
+      <c r="NY2">
+        <v>0.3364903225837643</v>
+      </c>
+      <c r="NZ2">
+        <v>2.547685813410714</v>
+      </c>
+      <c r="OA2">
+        <v>16.55397596040345</v>
+      </c>
+      <c r="OB2">
+        <v>0.4475886959825442</v>
+      </c>
+      <c r="OC2">
+        <v>53.82594495440667</v>
+      </c>
+      <c r="OD2">
+        <v>29.97952633903321</v>
+      </c>
+      <c r="OE2">
+        <v>0.3667520184410202</v>
+      </c>
+      <c r="OF2">
+        <v>0.340997809786911</v>
+      </c>
+      <c r="OG2">
+        <v>0.3582413489376847</v>
+      </c>
+      <c r="OH2">
+        <v>20.70130209344123</v>
+      </c>
+      <c r="OI2">
+        <v>0.354974347011691</v>
+      </c>
+      <c r="OJ2">
+        <v>7.418097925572339</v>
+      </c>
+      <c r="OK2">
+        <v>0.344303672505636</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>0.33524552823011</v>
+        <v>0.3695802449994028</v>
       </c>
       <c r="C3">
-        <v>302.6079829108028</v>
+        <v>0.3755679951685215</v>
       </c>
       <c r="D3">
-        <v>38.90784464427228</v>
+        <v>0.8525645763829355</v>
       </c>
       <c r="E3">
-        <v>144.0607161985278</v>
+        <v>17.90910621079237</v>
       </c>
       <c r="F3">
-        <v>0.3607455490163634</v>
+        <v>0.3997213771964523</v>
       </c>
       <c r="G3">
-        <v>6.174452025203835</v>
+        <v>0.4707093778863076</v>
       </c>
       <c r="H3">
-        <v>0.3373357512194052</v>
+        <v>0.3363688087558744</v>
       </c>
       <c r="I3">
-        <v>260.9942545322375</v>
+        <v>0.3786247287899592</v>
       </c>
       <c r="J3">
-        <v>0.3348673542498242</v>
+        <v>0.337820247166581</v>
       </c>
       <c r="K3">
-        <v>0.3423027195343994</v>
+        <v>0.3718008468283022</v>
       </c>
       <c r="L3">
-        <v>0.3522601071170667</v>
+        <v>0.6389681434998775</v>
       </c>
       <c r="M3">
-        <v>0.3344163091503288</v>
+        <v>0.3401981108426697</v>
       </c>
       <c r="N3">
-        <v>0.3569163921986354</v>
+        <v>0.3461854150943964</v>
       </c>
       <c r="O3">
-        <v>1812.979747365618</v>
+        <v>0.3398435081585933</v>
       </c>
       <c r="P3">
-        <v>0.3537096557058172</v>
+        <v>0.3363835029594315</v>
       </c>
       <c r="Q3">
-        <v>0.3676612441700544</v>
+        <v>0.3688927451816231</v>
       </c>
       <c r="R3">
-        <v>0.3723719850335837</v>
+        <v>0.3350373720918507</v>
       </c>
       <c r="S3">
-        <v>520.1908699774403</v>
+        <v>0.3467908869853445</v>
       </c>
       <c r="T3">
-        <v>1.275555102319019</v>
+        <v>0.3503861015990381</v>
       </c>
       <c r="U3">
-        <v>50.9778531922045</v>
+        <v>0.336806546571533</v>
       </c>
       <c r="V3">
-        <v>0.3853694023674836</v>
+        <v>0.4633604598451863</v>
       </c>
       <c r="W3">
-        <v>0.3412129841824692</v>
+        <v>0.3415866456223874</v>
       </c>
       <c r="X3">
-        <v>0.3360553324108043</v>
+        <v>6.806825609586801</v>
       </c>
       <c r="Y3">
-        <v>50.07348358647472</v>
+        <v>2.001603288600212</v>
       </c>
       <c r="Z3">
-        <v>256.3497423140583</v>
+        <v>0.3629622302164506</v>
       </c>
       <c r="AA3">
-        <v>0.3423523154013389</v>
+        <v>0.3991489699886732</v>
       </c>
       <c r="AB3">
-        <v>17.18276059219619</v>
+        <v>16.77119093906082</v>
       </c>
       <c r="AC3">
-        <v>0.3346572945841187</v>
+        <v>0.3401745174849967</v>
       </c>
       <c r="AD3">
-        <v>20.49620379879571</v>
+        <v>38.95118060946926</v>
       </c>
       <c r="AE3">
-        <v>0.3642832125567941</v>
+        <v>0.345086502439179</v>
       </c>
       <c r="AF3">
-        <v>0.3940544539342359</v>
+        <v>33.48683708472611</v>
       </c>
       <c r="AG3">
-        <v>30.3043753469919</v>
+        <v>0.3394657728008431</v>
       </c>
       <c r="AH3">
-        <v>0.4264489145757574</v>
+        <v>0.3356977829291309</v>
       </c>
       <c r="AI3">
-        <v>0.3478977991219706</v>
+        <v>0.516853871820188</v>
       </c>
       <c r="AJ3">
-        <v>227.0668897962346</v>
+        <v>0.3366500080993252</v>
       </c>
       <c r="AK3">
-        <v>144.7676296638885</v>
+        <v>0.4217996707916422</v>
       </c>
       <c r="AL3">
-        <v>0.3379609912292289</v>
+        <v>310.9754837999554</v>
       </c>
       <c r="AM3">
-        <v>0.3393634020697431</v>
+        <v>0.5517858707820175</v>
       </c>
       <c r="AN3">
-        <v>418.2669284315805</v>
+        <v>0.3391616671602979</v>
       </c>
       <c r="AO3">
-        <v>143.3054935098688</v>
+        <v>0.3347232047118642</v>
       </c>
       <c r="AP3">
-        <v>2.066975085186177</v>
+        <v>41.82623667588535</v>
       </c>
       <c r="AQ3">
-        <v>0.3383708480428986</v>
+        <v>0.3899598800871164</v>
       </c>
       <c r="AR3">
-        <v>0.395126386683877</v>
+        <v>0.33916005769088</v>
       </c>
       <c r="AS3">
-        <v>12.0463603378469</v>
+        <v>5.167106570237633</v>
       </c>
       <c r="AT3">
-        <v>49.93019304414276</v>
+        <v>0.9834539980750565</v>
       </c>
       <c r="AU3">
-        <v>31.3739735467158</v>
+        <v>29.11934577929225</v>
       </c>
       <c r="AV3">
-        <v>93.29548279636832</v>
+        <v>0.3769180714883889</v>
       </c>
       <c r="AW3">
-        <v>0.3410461161007625</v>
+        <v>28.56969748205438</v>
       </c>
       <c r="AX3">
-        <v>0.3514808844351374</v>
+        <v>0.3553142338271858</v>
       </c>
       <c r="AY3">
-        <v>59.92741260008374</v>
+        <v>0.3362503399371297</v>
       </c>
       <c r="AZ3">
-        <v>26.42631557260361</v>
+        <v>0.3685628262501945</v>
       </c>
       <c r="BA3">
-        <v>43.86173999432626</v>
+        <v>27.90291069354774</v>
       </c>
       <c r="BB3">
-        <v>2.339556378903999</v>
+        <v>2.598081938416017</v>
       </c>
       <c r="BC3">
-        <v>124.0104934171782</v>
+        <v>0.3956429077507137</v>
       </c>
       <c r="BD3">
-        <v>0.3718000421131887</v>
+        <v>0.3947198670862609</v>
       </c>
       <c r="BE3">
-        <v>0.3372663970828296</v>
+        <v>0.3378877664676955</v>
       </c>
       <c r="BF3">
-        <v>0.3688167439195055</v>
+        <v>60.03401609914921</v>
       </c>
       <c r="BG3">
-        <v>0.3648314464519644</v>
+        <v>0.3668034047904688</v>
       </c>
       <c r="BH3">
-        <v>38.85997309415878</v>
+        <v>0.3381662820356543</v>
       </c>
       <c r="BI3">
-        <v>0.3423337314416386</v>
+        <v>0.3830265597271041</v>
       </c>
       <c r="BJ3">
-        <v>0.33618380685002</v>
+        <v>0.3472651302602882</v>
       </c>
       <c r="BK3">
-        <v>196.325942168696</v>
+        <v>0.3395582628548478</v>
       </c>
       <c r="BL3">
-        <v>0.4048946044829955</v>
+        <v>73.45227929134005</v>
       </c>
       <c r="BM3">
-        <v>0.3573552417190366</v>
+        <v>8.127959668824783</v>
       </c>
       <c r="BN3">
-        <v>0.3489707482654543</v>
+        <v>92.58898295756939</v>
       </c>
       <c r="BO3">
-        <v>0.3407631689238237</v>
+        <v>0.3857528398428717</v>
       </c>
       <c r="BP3">
-        <v>0.3765494829930962</v>
+        <v>2.139440987546298</v>
       </c>
       <c r="BQ3">
-        <v>0.3608504852250197</v>
+        <v>0.3453639569124289</v>
       </c>
       <c r="BR3">
-        <v>0.3395467955224873</v>
+        <v>0.4207975187046619</v>
       </c>
       <c r="BS3">
-        <v>480.4824387979957</v>
+        <v>0.3426779366764197</v>
       </c>
       <c r="BT3">
-        <v>25.45231721232996</v>
+        <v>0.3353958872772058</v>
       </c>
       <c r="BU3">
-        <v>499.5893395644451</v>
+        <v>0.3530971590051452</v>
       </c>
       <c r="BV3">
-        <v>587.5010294466788</v>
+        <v>0.4449801143418344</v>
       </c>
       <c r="BW3">
-        <v>43.1577725101843</v>
+        <v>3.567781503117955</v>
       </c>
       <c r="BX3">
-        <v>0.3377755965556608</v>
+        <v>27.41614953100015</v>
       </c>
       <c r="BY3">
-        <v>1.439274169679115</v>
+        <v>1.871499949473636</v>
       </c>
       <c r="BZ3">
-        <v>0.4283737335397427</v>
+        <v>54.71242727021436</v>
       </c>
       <c r="CA3">
-        <v>0.496910267279712</v>
+        <v>0.343355359172441</v>
       </c>
       <c r="CB3">
-        <v>9.760702501697498</v>
+        <v>0.3448971604423147</v>
       </c>
       <c r="CC3">
-        <v>7.000377638432139</v>
+        <v>0.3491280563570218</v>
       </c>
       <c r="CD3">
-        <v>0.3336670611244845</v>
+        <v>0.5852757647405691</v>
       </c>
       <c r="CE3">
-        <v>0.6290643812202252</v>
+        <v>0.7707479359817402</v>
       </c>
       <c r="CF3">
-        <v>243.6330112228305</v>
+        <v>0.34629550776471</v>
       </c>
       <c r="CG3">
-        <v>0.3463054213760841</v>
+        <v>0.4546011342834684</v>
       </c>
       <c r="CH3">
-        <v>39.30270705400886</v>
+        <v>11.68121212910154</v>
       </c>
       <c r="CI3">
-        <v>0.3435026283221232</v>
+        <v>3.159475156446185</v>
       </c>
       <c r="CJ3">
-        <v>0.3360355462049519</v>
+        <v>0.3720547807632902</v>
       </c>
       <c r="CK3">
-        <v>0.3360643063468805</v>
+        <v>0.3394306318566546</v>
       </c>
       <c r="CL3">
-        <v>342.3743933088398</v>
+        <v>0.3471005783803558</v>
       </c>
       <c r="CM3">
-        <v>48.7004979598421</v>
+        <v>0.3551609963186157</v>
       </c>
       <c r="CN3">
-        <v>16.51748463894581</v>
+        <v>0.5747878101918387</v>
       </c>
       <c r="CO3">
-        <v>0.335287601868315</v>
+        <v>53.04431937503052</v>
       </c>
       <c r="CP3">
-        <v>0.334875817201653</v>
+        <v>0.3954160590902971</v>
       </c>
       <c r="CQ3">
-        <v>32.10982286659603</v>
+        <v>0.3356414630667642</v>
       </c>
       <c r="CR3">
-        <v>550.2376039036864</v>
+        <v>0.3498386964651669</v>
       </c>
       <c r="CS3">
-        <v>172.4968509539201</v>
+        <v>0.3768036937964412</v>
       </c>
       <c r="CT3">
-        <v>0.3410503454184375</v>
+        <v>0.340370250296143</v>
       </c>
       <c r="CU3">
-        <v>5.970176624563588</v>
+        <v>0.3409256515327165</v>
       </c>
       <c r="CV3">
-        <v>7.708770304117046</v>
+        <v>1.639622721522897</v>
       </c>
       <c r="CW3">
-        <v>0.3767487669744213</v>
+        <v>0.3346359874345505</v>
       </c>
       <c r="CX3">
-        <v>0.356648405632046</v>
+        <v>0.3386831959386028</v>
       </c>
       <c r="CY3">
-        <v>597.1849680166625</v>
+        <v>0.3674915213627256</v>
       </c>
       <c r="CZ3">
-        <v>394.6350961442334</v>
+        <v>0.3884485485872627</v>
       </c>
       <c r="DA3">
-        <v>0.3379075254156039</v>
+        <v>5.819142384180973</v>
       </c>
       <c r="DB3">
-        <v>0.3574269924425493</v>
+        <v>0.4294182877514808</v>
       </c>
       <c r="DC3">
-        <v>7.183299850068667</v>
+        <v>0.336526012717636</v>
       </c>
       <c r="DD3">
-        <v>0.3884708615105079</v>
+        <v>0.3702849880718227</v>
       </c>
       <c r="DE3">
-        <v>20.55273851852761</v>
+        <v>0.3821324536349456</v>
       </c>
       <c r="DF3">
-        <v>196.9931889881643</v>
+        <v>0.4121857303407404</v>
       </c>
       <c r="DG3">
-        <v>326.9174364938951</v>
+        <v>0.348915261537749</v>
       </c>
       <c r="DH3">
-        <v>0.3728281703026808</v>
+        <v>0.3353963007443079</v>
       </c>
       <c r="DI3">
-        <v>27.76141674190371</v>
+        <v>0.4318412769155358</v>
       </c>
       <c r="DJ3">
-        <v>76.05929546349098</v>
+        <v>0.3416067323062669</v>
       </c>
       <c r="DK3">
-        <v>8.341860663379441</v>
+        <v>0.4115942841677517</v>
       </c>
       <c r="DL3">
-        <v>9.430696985006586</v>
+        <v>0.3390230037643852</v>
       </c>
       <c r="DM3">
-        <v>345.2620949709832</v>
+        <v>0.3676734844312092</v>
       </c>
       <c r="DN3">
-        <v>27.45668468581079</v>
+        <v>1.955418723967107</v>
       </c>
       <c r="DO3">
-        <v>2427.533846340495</v>
+        <v>0.3537599060805059</v>
       </c>
       <c r="DP3">
-        <v>8.742999711634182</v>
+        <v>0.3432260078908694</v>
       </c>
       <c r="DQ3">
-        <v>0.3477850453660333</v>
+        <v>0.346335317438048</v>
       </c>
       <c r="DR3">
-        <v>37.3280194213796</v>
+        <v>0.3452994982713954</v>
       </c>
       <c r="DS3">
-        <v>96.67591196784049</v>
+        <v>1.376919697456934</v>
       </c>
       <c r="DT3">
-        <v>155.026858068683</v>
+        <v>0.336586547197006</v>
       </c>
       <c r="DU3">
-        <v>0.3389841504102731</v>
+        <v>0.344279971714705</v>
       </c>
       <c r="DV3">
-        <v>0.3589262606103778</v>
+        <v>35.10759861207334</v>
       </c>
       <c r="DW3">
-        <v>0.344282711860787</v>
+        <v>0.3905338028522374</v>
       </c>
       <c r="DX3">
-        <v>0.3336141718154843</v>
+        <v>0.3594446453244141</v>
       </c>
       <c r="DY3">
-        <v>25.86751886443059</v>
+        <v>0.3418666161751517</v>
       </c>
       <c r="DZ3">
-        <v>3.920140618886521</v>
+        <v>0.3558167712849034</v>
       </c>
       <c r="EA3">
-        <v>313.2761112883506</v>
+        <v>3.661203498162367</v>
       </c>
       <c r="EB3">
-        <v>0.344648851237402</v>
+        <v>0.3353347036431118</v>
       </c>
       <c r="EC3">
-        <v>0.3447625724564951</v>
+        <v>0.3542026525313453</v>
       </c>
       <c r="ED3">
-        <v>0.3371111047407203</v>
+        <v>0.335510330502529</v>
       </c>
       <c r="EE3">
-        <v>54.23293076646024</v>
+        <v>87.53732318592269</v>
       </c>
       <c r="EF3">
-        <v>0.6938019836296293</v>
+        <v>0.3502579906751957</v>
       </c>
       <c r="EG3">
-        <v>28.00911590906918</v>
+        <v>59.22959694254339</v>
       </c>
       <c r="EH3">
-        <v>0.3386432778638314</v>
+        <v>4.323632432044085</v>
       </c>
       <c r="EI3">
-        <v>102.2959853390082</v>
+        <v>0.3669196978287698</v>
       </c>
       <c r="EJ3">
-        <v>0.334643121209029</v>
+        <v>0.3578017924736844</v>
       </c>
       <c r="EK3">
-        <v>0.3714685539047577</v>
+        <v>0.3709437243743808</v>
       </c>
       <c r="EL3">
-        <v>160.6523000112612</v>
+        <v>0.335162119145016</v>
       </c>
       <c r="EM3">
-        <v>0.3575428821468348</v>
+        <v>0.3408084051377887</v>
       </c>
       <c r="EN3">
-        <v>0.3464236513177175</v>
+        <v>0.3360640439154268</v>
       </c>
       <c r="EO3">
-        <v>138.3183018807603</v>
+        <v>0.3363451399033621</v>
       </c>
       <c r="EP3">
-        <v>91.29863088266178</v>
+        <v>0.3422636718722641</v>
       </c>
       <c r="EQ3">
-        <v>2672.584516390908</v>
+        <v>0.3370300791584007</v>
       </c>
       <c r="ER3">
-        <v>2233.422073768682</v>
+        <v>0.3774462778843918</v>
       </c>
       <c r="ES3">
-        <v>375.5004285932909</v>
+        <v>0.3407877156803825</v>
       </c>
       <c r="ET3">
-        <v>1149.274487057421</v>
+        <v>2.272992132069537</v>
       </c>
       <c r="EU3">
-        <v>67.26983453115119</v>
+        <v>4.586394421985402</v>
       </c>
       <c r="EV3">
-        <v>1192.569458276423</v>
+        <v>0.3346006611904445</v>
       </c>
       <c r="EW3">
-        <v>0.3501198050152615</v>
+        <v>0.3384792860089794</v>
       </c>
       <c r="EX3">
-        <v>26.99906631651494</v>
+        <v>148.3207497194415</v>
       </c>
       <c r="EY3">
-        <v>69.701645306945</v>
+        <v>0.3697038246579672</v>
       </c>
       <c r="EZ3">
-        <v>76.22225181423197</v>
+        <v>0.3858748976768227</v>
       </c>
       <c r="FA3">
-        <v>0.3403305658763106</v>
+        <v>0.3499067707193851</v>
       </c>
       <c r="FB3">
-        <v>328.2559409681721</v>
+        <v>0.3358508246673706</v>
       </c>
       <c r="FC3">
-        <v>21.52722477513807</v>
+        <v>0.3473602607926664</v>
       </c>
       <c r="FD3">
-        <v>7.113064606098265</v>
+        <v>17.88029776218876</v>
       </c>
       <c r="FE3">
-        <v>74.92941449984691</v>
+        <v>0.3916863184302566</v>
       </c>
       <c r="FF3">
-        <v>43.33976609013101</v>
+        <v>0.3599931244545914</v>
       </c>
       <c r="FG3">
-        <v>41.89903933801006</v>
+        <v>0.554533736234509</v>
       </c>
       <c r="FH3">
-        <v>79.33324634559808</v>
+        <v>12.7310874808899</v>
       </c>
       <c r="FI3">
-        <v>0.3714304262541261</v>
+        <v>0.4379789812405642</v>
       </c>
       <c r="FJ3">
-        <v>0.3581597340296186</v>
+        <v>0.3954107911958448</v>
       </c>
       <c r="FK3">
-        <v>8.896040882814857</v>
+        <v>0.4586606713333248</v>
       </c>
       <c r="FL3">
-        <v>24.7788764070101</v>
+        <v>46.03458247005492</v>
       </c>
       <c r="FM3">
-        <v>0.3501725463298655</v>
+        <v>0.3546279540742003</v>
       </c>
       <c r="FN3">
-        <v>0.3383232848628785</v>
+        <v>0.3494886574571988</v>
       </c>
       <c r="FO3">
-        <v>62.10508230054638</v>
+        <v>0.361515545348017</v>
       </c>
       <c r="FP3">
-        <v>863.0071301167194</v>
+        <v>0.4285544993536513</v>
       </c>
       <c r="FQ3">
-        <v>81.9424279363993</v>
+        <v>15.46623824451882</v>
       </c>
       <c r="FR3">
-        <v>34.30562859965527</v>
+        <v>0.3467288661454445</v>
       </c>
       <c r="FS3">
-        <v>0.3380057183819781</v>
+        <v>0.3537947027223069</v>
       </c>
       <c r="FT3">
-        <v>140.3813325155156</v>
+        <v>0.3362760704485104</v>
       </c>
       <c r="FU3">
-        <v>34.56524668470883</v>
+        <v>0.3344148338106279</v>
       </c>
       <c r="FV3">
-        <v>0.3361173803553156</v>
+        <v>0.6163642081157855</v>
       </c>
       <c r="FW3">
-        <v>608.2213418145534</v>
+        <v>0.3382538132898373</v>
       </c>
       <c r="FX3">
-        <v>7.958812268964458</v>
+        <v>0.3752411779413561</v>
       </c>
       <c r="FY3">
-        <v>0.5831815880277657</v>
+        <v>27.77365384040521</v>
       </c>
       <c r="FZ3">
-        <v>0.3479644810125889</v>
+        <v>0.3398975861261715</v>
       </c>
       <c r="GA3">
-        <v>4.019112383520455</v>
+        <v>0.3639981218062639</v>
       </c>
       <c r="GB3">
-        <v>385.0160935684767</v>
+        <v>0.3407319410963991</v>
       </c>
       <c r="GC3">
-        <v>21.362328556865</v>
+        <v>0.3362245931331035</v>
       </c>
       <c r="GD3">
-        <v>0.333675651202967</v>
+        <v>0.3597249155086715</v>
       </c>
       <c r="GE3">
-        <v>0.3376683313809625</v>
+        <v>0.3377786861779408</v>
       </c>
       <c r="GF3">
-        <v>76.90378108750598</v>
+        <v>0.3545625647889938</v>
       </c>
       <c r="GG3">
-        <v>0.3571654162804135</v>
+        <v>1.204903020655773</v>
       </c>
       <c r="GH3">
-        <v>0.3753135227147845</v>
+        <v>15.52555147393202</v>
       </c>
       <c r="GI3">
-        <v>0.3443965453876777</v>
+        <v>16.49392492646175</v>
       </c>
       <c r="GJ3">
-        <v>0.3395187186846564</v>
+        <v>0.3362561762637422</v>
       </c>
       <c r="GK3">
-        <v>0.368471926667237</v>
+        <v>4.785731385673832</v>
       </c>
       <c r="GL3">
-        <v>0.4319477151270569</v>
+        <v>0.3660775896173449</v>
       </c>
       <c r="GM3">
-        <v>0.3427333637144377</v>
+        <v>0.3445318867234101</v>
       </c>
       <c r="GN3">
-        <v>3.212545776903013</v>
+        <v>0.3794223527242669</v>
       </c>
       <c r="GO3">
-        <v>0.3670943452163499</v>
+        <v>49.32916345867653</v>
       </c>
       <c r="GP3">
-        <v>554.7230522519778</v>
+        <v>120.2903749043642</v>
       </c>
       <c r="GQ3">
-        <v>39.40707676275777</v>
+        <v>0.3541618496100266</v>
       </c>
       <c r="GR3">
-        <v>0.3492946609125462</v>
+        <v>0.3423862528515044</v>
       </c>
       <c r="GS3">
-        <v>180.7235534150298</v>
+        <v>0.339792756710326</v>
+      </c>
+      <c r="GT3">
+        <v>0.3373482232770975</v>
+      </c>
+      <c r="GU3">
+        <v>0.3398727840707996</v>
+      </c>
+      <c r="GV3">
+        <v>0.8317931417064226</v>
+      </c>
+      <c r="GW3">
+        <v>0.3360711275633584</v>
+      </c>
+      <c r="GX3">
+        <v>96.55141501089918</v>
+      </c>
+      <c r="GY3">
+        <v>9.651608082005581</v>
+      </c>
+      <c r="GZ3">
+        <v>0.3695588087657973</v>
+      </c>
+      <c r="HA3">
+        <v>57.46114337698842</v>
+      </c>
+      <c r="HB3">
+        <v>104.5713385739864</v>
+      </c>
+      <c r="HC3">
+        <v>0.9086786870424393</v>
+      </c>
+      <c r="HD3">
+        <v>77.81763165661813</v>
+      </c>
+      <c r="HE3">
+        <v>48.86375007712406</v>
+      </c>
+      <c r="HF3">
+        <v>13.95546575084217</v>
+      </c>
+      <c r="HG3">
+        <v>68.64451215813585</v>
+      </c>
+      <c r="HH3">
+        <v>0.3388615080134808</v>
+      </c>
+      <c r="HI3">
+        <v>0.3410539376766833</v>
+      </c>
+      <c r="HJ3">
+        <v>0.3420809850961996</v>
+      </c>
+      <c r="HK3">
+        <v>3.022981812012465</v>
+      </c>
+      <c r="HL3">
+        <v>26.4646032248543</v>
+      </c>
+      <c r="HM3">
+        <v>67.04838759129655</v>
+      </c>
+      <c r="HN3">
+        <v>0.3967862794050871</v>
+      </c>
+      <c r="HO3">
+        <v>0.4478251556955942</v>
+      </c>
+      <c r="HP3">
+        <v>84.55293772582777</v>
+      </c>
+      <c r="HQ3">
+        <v>0.3392510753669863</v>
+      </c>
+      <c r="HR3">
+        <v>0.3740860507263387</v>
+      </c>
+      <c r="HS3">
+        <v>26.88560591835899</v>
+      </c>
+      <c r="HT3">
+        <v>2.012206062636642</v>
+      </c>
+      <c r="HU3">
+        <v>0.362561762257145</v>
+      </c>
+      <c r="HV3">
+        <v>4.036483956523095</v>
+      </c>
+      <c r="HW3">
+        <v>9.696111139148297</v>
+      </c>
+      <c r="HX3">
+        <v>11.11973317580539</v>
+      </c>
+      <c r="HY3">
+        <v>0.3590077426677979</v>
+      </c>
+      <c r="HZ3">
+        <v>67.97992383511297</v>
+      </c>
+      <c r="IA3">
+        <v>0.3365368408342961</v>
+      </c>
+      <c r="IB3">
+        <v>0.3427068342431998</v>
+      </c>
+      <c r="IC3">
+        <v>34.38807232259259</v>
+      </c>
+      <c r="ID3">
+        <v>27.32417049206395</v>
+      </c>
+      <c r="IE3">
+        <v>1.755253702536724</v>
+      </c>
+      <c r="IF3">
+        <v>0.3608595247173225</v>
+      </c>
+      <c r="IG3">
+        <v>130.7687382018982</v>
+      </c>
+      <c r="IH3">
+        <v>1.797498930157492</v>
+      </c>
+      <c r="II3">
+        <v>0.5285276232544568</v>
+      </c>
+      <c r="IJ3">
+        <v>0.3678773264420656</v>
+      </c>
+      <c r="IK3">
+        <v>0.3373306633741165</v>
+      </c>
+      <c r="IL3">
+        <v>0.3433718556612847</v>
+      </c>
+      <c r="IM3">
+        <v>0.3345583942737389</v>
+      </c>
+      <c r="IN3">
+        <v>0.3417105686976408</v>
+      </c>
+      <c r="IO3">
+        <v>0.3899414782588589</v>
+      </c>
+      <c r="IP3">
+        <v>0.3371915902319281</v>
+      </c>
+      <c r="IQ3">
+        <v>0.3506033268510579</v>
+      </c>
+      <c r="IR3">
+        <v>0.5990596634846077</v>
+      </c>
+      <c r="IS3">
+        <v>0.3372790263795565</v>
+      </c>
+      <c r="IT3">
+        <v>25.97841867703883</v>
+      </c>
+      <c r="IU3">
+        <v>0.3368096530083872</v>
+      </c>
+      <c r="IV3">
+        <v>0.3380176510888326</v>
+      </c>
+      <c r="IW3">
+        <v>0.3385303578496485</v>
+      </c>
+      <c r="IX3">
+        <v>0.3399971737048806</v>
+      </c>
+      <c r="IY3">
+        <v>17.67536343968228</v>
+      </c>
+      <c r="IZ3">
+        <v>0.3444530073308549</v>
+      </c>
+      <c r="JA3">
+        <v>0.4054974825458529</v>
+      </c>
+      <c r="JB3">
+        <v>0.3663801717637892</v>
+      </c>
+      <c r="JC3">
+        <v>0.3812566666149114</v>
+      </c>
+      <c r="JD3">
+        <v>69.49685364608534</v>
+      </c>
+      <c r="JE3">
+        <v>0.3378032011648358</v>
+      </c>
+      <c r="JF3">
+        <v>8.097416347422769</v>
+      </c>
+      <c r="JG3">
+        <v>0.4109782900885802</v>
+      </c>
+      <c r="JH3">
+        <v>0.3356195616880674</v>
+      </c>
+      <c r="JI3">
+        <v>0.3380565823978924</v>
+      </c>
+      <c r="JJ3">
+        <v>0.3469673032996191</v>
+      </c>
+      <c r="JK3">
+        <v>53.99314739577204</v>
+      </c>
+      <c r="JL3">
+        <v>0.3900332482622158</v>
+      </c>
+      <c r="JM3">
+        <v>12.50129164289484</v>
+      </c>
+      <c r="JN3">
+        <v>0.3418884469225531</v>
+      </c>
+      <c r="JO3">
+        <v>0.3686945024483458</v>
+      </c>
+      <c r="JP3">
+        <v>0.3554469301991665</v>
+      </c>
+      <c r="JQ3">
+        <v>0.3643626934338142</v>
+      </c>
+      <c r="JR3">
+        <v>0.3407777203787135</v>
+      </c>
+      <c r="JS3">
+        <v>0.4284915887341486</v>
+      </c>
+      <c r="JT3">
+        <v>0.4894275939528822</v>
+      </c>
+      <c r="JU3">
+        <v>0.3995093045290952</v>
+      </c>
+      <c r="JV3">
+        <v>71.6646516870385</v>
+      </c>
+      <c r="JW3">
+        <v>0.397669885008808</v>
+      </c>
+      <c r="JX3">
+        <v>0.3436455225801426</v>
+      </c>
+      <c r="JY3">
+        <v>399.5076865866785</v>
+      </c>
+      <c r="JZ3">
+        <v>0.3463482491038465</v>
+      </c>
+      <c r="KA3">
+        <v>7.160422049733953</v>
+      </c>
+      <c r="KB3">
+        <v>0.4676997657984667</v>
+      </c>
+      <c r="KC3">
+        <v>0.4283438432452192</v>
+      </c>
+      <c r="KD3">
+        <v>1.481639261761178</v>
+      </c>
+      <c r="KE3">
+        <v>0.3481139244701261</v>
+      </c>
+      <c r="KF3">
+        <v>0.3824873518274309</v>
+      </c>
+      <c r="KG3">
+        <v>0.3353056996253383</v>
+      </c>
+      <c r="KH3">
+        <v>0.3352786277475445</v>
+      </c>
+      <c r="KI3">
+        <v>0.3482484302234518</v>
+      </c>
+      <c r="KJ3">
+        <v>0.3493705633991597</v>
+      </c>
+      <c r="KK3">
+        <v>0.3557391328812539</v>
+      </c>
+      <c r="KL3">
+        <v>0.3802416901525125</v>
+      </c>
+      <c r="KM3">
+        <v>29.23746177824723</v>
+      </c>
+      <c r="KN3">
+        <v>0.3476965229916398</v>
+      </c>
+      <c r="KO3">
+        <v>0.3883180835838302</v>
+      </c>
+      <c r="KP3">
+        <v>0.4370756757220778</v>
+      </c>
+      <c r="KQ3">
+        <v>0.4020754360248576</v>
+      </c>
+      <c r="KR3">
+        <v>87.4433075532969</v>
+      </c>
+      <c r="KS3">
+        <v>1.162161719713512</v>
+      </c>
+      <c r="KT3">
+        <v>0.334550247644108</v>
+      </c>
+      <c r="KU3">
+        <v>182.9350751011335</v>
+      </c>
+      <c r="KV3">
+        <v>0.3605447862602403</v>
+      </c>
+      <c r="KW3">
+        <v>0.3373746168652165</v>
+      </c>
+      <c r="KX3">
+        <v>4.782424181330359</v>
+      </c>
+      <c r="KY3">
+        <v>7.035363034438535</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3379260269811968</v>
+      </c>
+      <c r="LA3">
+        <v>0.3454084485992193</v>
+      </c>
+      <c r="LB3">
+        <v>0.3349290804654017</v>
+      </c>
+      <c r="LC3">
+        <v>0.3501017487023374</v>
+      </c>
+      <c r="LD3">
+        <v>5.734210083891929</v>
+      </c>
+      <c r="LE3">
+        <v>0.3460680193650791</v>
+      </c>
+      <c r="LF3">
+        <v>9.548387269994462</v>
+      </c>
+      <c r="LG3">
+        <v>0.3850485078795651</v>
+      </c>
+      <c r="LH3">
+        <v>0.3420341243730671</v>
+      </c>
+      <c r="LI3">
+        <v>0.3602516715169011</v>
+      </c>
+      <c r="LJ3">
+        <v>0.3581030156013827</v>
+      </c>
+      <c r="LK3">
+        <v>57.09365632635372</v>
+      </c>
+      <c r="LL3">
+        <v>0.3484660585925575</v>
+      </c>
+      <c r="LM3">
+        <v>0.3623433021865344</v>
+      </c>
+      <c r="LN3">
+        <v>36.13423966868317</v>
+      </c>
+      <c r="LO3">
+        <v>0.3761659467528098</v>
+      </c>
+      <c r="LP3">
+        <v>15.92715715090568</v>
+      </c>
+      <c r="LQ3">
+        <v>1.923105039295463</v>
+      </c>
+      <c r="LR3">
+        <v>0.3346096906153598</v>
+      </c>
+      <c r="LS3">
+        <v>0.3458279692855433</v>
+      </c>
+      <c r="LT3">
+        <v>23.67779014807341</v>
+      </c>
+      <c r="LU3">
+        <v>0.3344189497374124</v>
+      </c>
+      <c r="LV3">
+        <v>1.906458684585645</v>
+      </c>
+      <c r="LW3">
+        <v>0.3361791995960674</v>
+      </c>
+      <c r="LX3">
+        <v>0.4089144092841337</v>
+      </c>
+      <c r="LY3">
+        <v>80.19784103601643</v>
+      </c>
+      <c r="LZ3">
+        <v>8.938353271341228</v>
+      </c>
+      <c r="MA3">
+        <v>0.3464510009981399</v>
+      </c>
+      <c r="MB3">
+        <v>0.3384760986309143</v>
+      </c>
+      <c r="MC3">
+        <v>4.609138326884442</v>
+      </c>
+      <c r="MD3">
+        <v>0.3564180758043556</v>
+      </c>
+      <c r="ME3">
+        <v>0.3720742612298273</v>
+      </c>
+      <c r="MF3">
+        <v>0.3503597383719026</v>
+      </c>
+      <c r="MG3">
+        <v>0.3686528740492276</v>
+      </c>
+      <c r="MH3">
+        <v>109.4307716874559</v>
+      </c>
+      <c r="MI3">
+        <v>0.3392139189675897</v>
+      </c>
+      <c r="MJ3">
+        <v>0.5641480180735527</v>
+      </c>
+      <c r="MK3">
+        <v>1.795519223082912</v>
+      </c>
+      <c r="ML3">
+        <v>0.4357307855474597</v>
+      </c>
+      <c r="MM3">
+        <v>0.372213602498029</v>
+      </c>
+      <c r="MN3">
+        <v>0.3544502873391984</v>
+      </c>
+      <c r="MO3">
+        <v>0.3410718972334277</v>
+      </c>
+      <c r="MP3">
+        <v>0.3436747929594307</v>
+      </c>
+      <c r="MQ3">
+        <v>1.153470246462953</v>
+      </c>
+      <c r="MR3">
+        <v>0.365408349639035</v>
+      </c>
+      <c r="MS3">
+        <v>0.3397979519229931</v>
+      </c>
+      <c r="MT3">
+        <v>0.3605555884550762</v>
+      </c>
+      <c r="MU3">
+        <v>1.449451420912858</v>
+      </c>
+      <c r="MV3">
+        <v>26.34713724142919</v>
+      </c>
+      <c r="MW3">
+        <v>0.6010034893874288</v>
+      </c>
+      <c r="MX3">
+        <v>0.3370809825562869</v>
+      </c>
+      <c r="MY3">
+        <v>61.17981221139</v>
+      </c>
+      <c r="MZ3">
+        <v>0.368383909733159</v>
+      </c>
+      <c r="NA3">
+        <v>21.20594773482075</v>
+      </c>
+      <c r="NB3">
+        <v>0.3383059018108031</v>
+      </c>
+      <c r="NC3">
+        <v>0.8348047362617399</v>
+      </c>
+      <c r="ND3">
+        <v>0.342172453493312</v>
+      </c>
+      <c r="NE3">
+        <v>2.024812478125634</v>
+      </c>
+      <c r="NF3">
+        <v>59.86045863859812</v>
+      </c>
+      <c r="NG3">
+        <v>0.4086608641892537</v>
+      </c>
+      <c r="NH3">
+        <v>0.3362565744022645</v>
+      </c>
+      <c r="NI3">
+        <v>5.121027719319252</v>
+      </c>
+      <c r="NJ3">
+        <v>0.3455045072882048</v>
+      </c>
+      <c r="NK3">
+        <v>0.347193515619662</v>
+      </c>
+      <c r="NL3">
+        <v>0.3511668271773325</v>
+      </c>
+      <c r="NM3">
+        <v>0.4159915342633792</v>
+      </c>
+      <c r="NN3">
+        <v>26.80292588386633</v>
+      </c>
+      <c r="NO3">
+        <v>0.4284432251928282</v>
+      </c>
+      <c r="NP3">
+        <v>0.3376981389303681</v>
+      </c>
+      <c r="NQ3">
+        <v>0.365493819964825</v>
+      </c>
+      <c r="NR3">
+        <v>0.3380616322090151</v>
+      </c>
+      <c r="NS3">
+        <v>0.3936706661149064</v>
+      </c>
+      <c r="NT3">
+        <v>0.3717307801293195</v>
+      </c>
+      <c r="NU3">
+        <v>0.348877978067365</v>
+      </c>
+      <c r="NV3">
+        <v>0.3369939657773996</v>
+      </c>
+      <c r="NW3">
+        <v>0.636380458485291</v>
+      </c>
+      <c r="NX3">
+        <v>0.3347848532328034</v>
+      </c>
+      <c r="NY3">
+        <v>0.3408944624934777</v>
+      </c>
+      <c r="NZ3">
+        <v>0.3418746665976502</v>
+      </c>
+      <c r="OA3">
+        <v>1.729586797208666</v>
+      </c>
+      <c r="OB3">
+        <v>179.2092003113798</v>
+      </c>
+      <c r="OC3">
+        <v>42.25637536916306</v>
+      </c>
+      <c r="OD3">
+        <v>0.3371141278231997</v>
+      </c>
+      <c r="OE3">
+        <v>0.3639886923596435</v>
+      </c>
+      <c r="OF3">
+        <v>0.3409418704701981</v>
+      </c>
+      <c r="OG3">
+        <v>0.3473068785747861</v>
+      </c>
+      <c r="OH3">
+        <v>3.583752399129378</v>
+      </c>
+      <c r="OI3">
+        <v>0.360095089317514</v>
+      </c>
+      <c r="OJ3">
+        <v>0.4819302986466454</v>
+      </c>
+      <c r="OK3">
+        <v>0.345625056441618</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>0.3373270843975054</v>
+        <v>0.3508651746938184</v>
       </c>
       <c r="C4">
-        <v>183.0390419193526</v>
+        <v>13.49011725550401</v>
       </c>
       <c r="D4">
-        <v>1.841188157929756</v>
+        <v>0.3797474941139846</v>
       </c>
       <c r="E4">
-        <v>0.3421952878515757</v>
+        <v>15.1516490231617</v>
       </c>
       <c r="F4">
-        <v>0.3452372350140221</v>
+        <v>0.4011436022362729</v>
       </c>
       <c r="G4">
-        <v>0.3990251908344461</v>
+        <v>12.51437052316658</v>
       </c>
       <c r="H4">
-        <v>30.29912536860229</v>
+        <v>8.102106562948604</v>
       </c>
       <c r="I4">
-        <v>0.3338156853802948</v>
+        <v>35.47034697540069</v>
       </c>
       <c r="J4">
-        <v>0.3335174687723853</v>
+        <v>0.3426103361885925</v>
       </c>
       <c r="K4">
-        <v>0.3404321628154984</v>
+        <v>0.349460749951799</v>
       </c>
       <c r="L4">
-        <v>0.3673694246936307</v>
+        <v>0.4348377475839236</v>
       </c>
       <c r="M4">
-        <v>0.3333632509234432</v>
+        <v>0.3369355948771302</v>
       </c>
       <c r="N4">
-        <v>144.8484532445889</v>
+        <v>0.3547819151564772</v>
       </c>
       <c r="O4">
-        <v>347.4235612501078</v>
+        <v>0.3419324673039726</v>
       </c>
       <c r="P4">
-        <v>0.378240318156791</v>
+        <v>0.3344905372773402</v>
       </c>
       <c r="Q4">
-        <v>0.333493078821205</v>
+        <v>0.3516354008242338</v>
       </c>
       <c r="R4">
-        <v>0.3420648401544756</v>
+        <v>0.3340535347099685</v>
       </c>
       <c r="S4">
-        <v>0.3844145592881145</v>
+        <v>0.3468174839713398</v>
       </c>
       <c r="T4">
-        <v>672.7200437013466</v>
+        <v>0.3406619807003488</v>
       </c>
       <c r="U4">
-        <v>3786.259632821073</v>
+        <v>0.3364711695029212</v>
       </c>
       <c r="V4">
-        <v>121.9438323277547</v>
+        <v>0.3884866419542144</v>
       </c>
       <c r="W4">
-        <v>0.375059101892574</v>
+        <v>0.3382330800202739</v>
       </c>
       <c r="X4">
-        <v>0.3337444581289043</v>
+        <v>0.381851077988643</v>
       </c>
       <c r="Y4">
-        <v>0.3940990340696983</v>
+        <v>0.3565832865778251</v>
       </c>
       <c r="Z4">
-        <v>1.681563172091157</v>
+        <v>20.38297149002493</v>
       </c>
       <c r="AA4">
-        <v>0.3336015059942233</v>
+        <v>33.43709627345509</v>
       </c>
       <c r="AB4">
-        <v>1.270182880954543</v>
+        <v>0.4979519394649227</v>
       </c>
       <c r="AC4">
-        <v>0.3335655348160165</v>
+        <v>0.3356794179151168</v>
       </c>
       <c r="AD4">
-        <v>11.38786039600176</v>
+        <v>4.761712179454292</v>
       </c>
       <c r="AE4">
-        <v>0.3841756977381876</v>
+        <v>0.3411002551752906</v>
       </c>
       <c r="AF4">
-        <v>910.265712474865</v>
+        <v>9.527785233454971</v>
       </c>
       <c r="AG4">
-        <v>0.3618569454519069</v>
+        <v>0.346350062695129</v>
       </c>
       <c r="AH4">
-        <v>2.990608440860447</v>
+        <v>0.3343398264688897</v>
       </c>
       <c r="AI4">
-        <v>0.3336422624226172</v>
+        <v>1.69583220993325</v>
       </c>
       <c r="AJ4">
-        <v>286.5732570132928</v>
+        <v>4.958817032706169</v>
       </c>
       <c r="AK4">
-        <v>0.3614666861141098</v>
+        <v>79.35990398478285</v>
       </c>
       <c r="AL4">
-        <v>0.3383663779964307</v>
+        <v>187.4853982485359</v>
       </c>
       <c r="AM4">
-        <v>0.3343882840597601</v>
+        <v>0.3716119612867686</v>
       </c>
       <c r="AN4">
-        <v>19.38942937841024</v>
+        <v>0.3356484983647074</v>
       </c>
       <c r="AO4">
-        <v>11.25768903911949</v>
+        <v>0.3343092697706185</v>
       </c>
       <c r="AP4">
-        <v>0.3571147219002646</v>
+        <v>0.3656064353233303</v>
       </c>
       <c r="AQ4">
-        <v>0.3338785004471926</v>
+        <v>0.4553789571455015</v>
       </c>
       <c r="AR4">
-        <v>9.999383912433352</v>
+        <v>8.824941005086774</v>
       </c>
       <c r="AS4">
-        <v>22.59433087161223</v>
+        <v>0.3768003295973593</v>
       </c>
       <c r="AT4">
-        <v>104.570458883954</v>
+        <v>0.3424633739891215</v>
       </c>
       <c r="AU4">
-        <v>0.3355101181938668</v>
+        <v>0.3764793620499472</v>
       </c>
       <c r="AV4">
-        <v>0.3476623644239641</v>
+        <v>0.3695597863669751</v>
       </c>
       <c r="AW4">
-        <v>0.3341629493179302</v>
+        <v>0.4839681230672416</v>
       </c>
       <c r="AX4">
-        <v>9.48740735750091</v>
+        <v>4.197803795476704</v>
       </c>
       <c r="AY4">
-        <v>54.83629198434286</v>
+        <v>0.3347354234527749</v>
       </c>
       <c r="AZ4">
-        <v>73.06142414709808</v>
+        <v>12.51793808791451</v>
       </c>
       <c r="BA4">
-        <v>2.936387822293475</v>
+        <v>0.3931634121200839</v>
       </c>
       <c r="BB4">
-        <v>31.27056282799613</v>
+        <v>0.4732786750920384</v>
       </c>
       <c r="BC4">
-        <v>42.68083644027963</v>
+        <v>0.4822787179502102</v>
       </c>
       <c r="BD4">
-        <v>2708.283568311123</v>
+        <v>71.19493336139639</v>
       </c>
       <c r="BE4">
-        <v>0.3362256132218452</v>
+        <v>0.3374646205960476</v>
       </c>
       <c r="BF4">
-        <v>0.3981955384038296</v>
+        <v>0.3623508579413782</v>
       </c>
       <c r="BG4">
-        <v>0.3421202287494299</v>
+        <v>0.3745062545595929</v>
       </c>
       <c r="BH4">
-        <v>63.3943917178691</v>
+        <v>0.337155779204986</v>
       </c>
       <c r="BI4">
-        <v>263.3119727561951</v>
+        <v>0.3820270146247032</v>
       </c>
       <c r="BJ4">
-        <v>0.3335070420136768</v>
+        <v>0.3403779592476329</v>
       </c>
       <c r="BK4">
-        <v>0.3335856669929904</v>
+        <v>0.3354034151841387</v>
       </c>
       <c r="BL4">
-        <v>19930.23755565442</v>
+        <v>4.509939342298021</v>
       </c>
       <c r="BM4">
-        <v>15.88592247674844</v>
+        <v>2.116973461224947</v>
       </c>
       <c r="BN4">
-        <v>0.3469529325932487</v>
+        <v>112.7143368845736</v>
       </c>
       <c r="BO4">
-        <v>0.335659070392047</v>
+        <v>30.14773779416425</v>
       </c>
       <c r="BP4">
-        <v>91.28557775842226</v>
+        <v>0.4440620084404907</v>
       </c>
       <c r="BQ4">
-        <v>155.5367211480934</v>
+        <v>0.3468204149995948</v>
       </c>
       <c r="BR4">
-        <v>0.3334766822599937</v>
+        <v>0.3414817027214227</v>
       </c>
       <c r="BS4">
-        <v>168.5392171138907</v>
+        <v>0.3376976174062201</v>
       </c>
       <c r="BT4">
-        <v>0.3783233141895261</v>
+        <v>0.3346069537317929</v>
       </c>
       <c r="BU4">
-        <v>95.57613328695165</v>
+        <v>0.3421473087414595</v>
       </c>
       <c r="BV4">
-        <v>19.15886450717515</v>
+        <v>0.3785713732085333</v>
       </c>
       <c r="BW4">
-        <v>130.0105015326525</v>
+        <v>0.412045382713236</v>
       </c>
       <c r="BX4">
-        <v>0.3335634331187314</v>
+        <v>0.3520988310739023</v>
       </c>
       <c r="BY4">
-        <v>67.22137493887413</v>
+        <v>0.3554270036065569</v>
       </c>
       <c r="BZ4">
-        <v>611.2352636131089</v>
+        <v>0.3567891836443237</v>
       </c>
       <c r="CA4">
-        <v>0.3762620257701645</v>
+        <v>0.3653097160921894</v>
       </c>
       <c r="CB4">
-        <v>0.3658448259951977</v>
+        <v>0.3361947740868855</v>
       </c>
       <c r="CC4">
-        <v>762.5551308014643</v>
+        <v>0.3382812508411833</v>
       </c>
       <c r="CD4">
-        <v>0.3333444153072382</v>
+        <v>0.7039056508765443</v>
       </c>
       <c r="CE4">
-        <v>382.0299392377088</v>
+        <v>0.4211165507494031</v>
       </c>
       <c r="CF4">
-        <v>6.382823097896595</v>
+        <v>3.908011419674897</v>
       </c>
       <c r="CG4">
-        <v>0.3371890615259092</v>
+        <v>19.39761239277212</v>
       </c>
       <c r="CH4">
-        <v>0.3346627734725267</v>
+        <v>0.4751233947385354</v>
       </c>
       <c r="CI4">
-        <v>0.3357395967901221</v>
+        <v>0.353718922099553</v>
       </c>
       <c r="CJ4">
-        <v>57.3285394049616</v>
+        <v>0.3399111490768641</v>
       </c>
       <c r="CK4">
-        <v>0.3335274673800804</v>
+        <v>0.334955450452306</v>
       </c>
       <c r="CL4">
-        <v>365.2751805347163</v>
+        <v>204.3776201772769</v>
       </c>
       <c r="CM4">
-        <v>0.4184183321971625</v>
+        <v>56.78723780621934</v>
       </c>
       <c r="CN4">
-        <v>1355.470274554831</v>
+        <v>29.09571183257647</v>
       </c>
       <c r="CO4">
-        <v>0.3602912825027345</v>
+        <v>61.69161593368072</v>
       </c>
       <c r="CP4">
-        <v>85.32945200329368</v>
+        <v>0.4120040112601546</v>
       </c>
       <c r="CQ4">
-        <v>0.3341833232654219</v>
+        <v>0.3357884811716558</v>
       </c>
       <c r="CR4">
-        <v>325.8214078802071</v>
+        <v>0.3411237689512999</v>
       </c>
       <c r="CS4">
-        <v>54.72883622527781</v>
+        <v>0.3435881824648697</v>
       </c>
       <c r="CT4">
-        <v>0.3342803924886867</v>
+        <v>7.094378666574967</v>
       </c>
       <c r="CU4">
-        <v>67.69300450158357</v>
+        <v>0.348839229701396</v>
       </c>
       <c r="CV4">
-        <v>0.3613870184535141</v>
+        <v>0.3826173589432699</v>
       </c>
       <c r="CW4">
-        <v>80.23320555003505</v>
+        <v>3.193215686845485</v>
       </c>
       <c r="CX4">
-        <v>0.3349223638744326</v>
+        <v>3.369920817275271</v>
       </c>
       <c r="CY4">
-        <v>0.3780086099854625</v>
+        <v>11.25030578298695</v>
       </c>
       <c r="CZ4">
-        <v>727.5168415130286</v>
+        <v>18.67270029497434</v>
       </c>
       <c r="DA4">
-        <v>113.3275317707814</v>
+        <v>0.3542254291040291</v>
       </c>
       <c r="DB4">
-        <v>0.3355117509683549</v>
+        <v>0.3396663725186381</v>
       </c>
       <c r="DC4">
-        <v>0.3624611458892433</v>
+        <v>0.3349133544600776</v>
       </c>
       <c r="DD4">
-        <v>0.3734529097899737</v>
+        <v>34.45873241540377</v>
       </c>
       <c r="DE4">
-        <v>0.3670901073211854</v>
+        <v>42.52159134316278</v>
       </c>
       <c r="DF4">
-        <v>390.7246720294912</v>
+        <v>0.3883579731924158</v>
       </c>
       <c r="DG4">
-        <v>51.81080431569193</v>
+        <v>0.3370965513248522</v>
       </c>
       <c r="DH4">
-        <v>0.3823576906664103</v>
+        <v>0.3346612441387415</v>
       </c>
       <c r="DI4">
-        <v>69.61931221606022</v>
+        <v>17.11342689859634</v>
       </c>
       <c r="DJ4">
-        <v>263.5887979468098</v>
+        <v>0.3414528684190899</v>
       </c>
       <c r="DK4">
-        <v>267.8510623472795</v>
+        <v>0.3482767782593766</v>
       </c>
       <c r="DL4">
-        <v>0.3632037737558013</v>
+        <v>0.3355150300086639</v>
       </c>
       <c r="DM4">
-        <v>147.6447169148569</v>
+        <v>852.6996138932673</v>
       </c>
       <c r="DN4">
-        <v>0.3768429052718962</v>
+        <v>29.28210122504863</v>
       </c>
       <c r="DO4">
-        <v>86.52139062705318</v>
+        <v>0.3402083817531482</v>
       </c>
       <c r="DP4">
-        <v>5.710133354659688</v>
+        <v>0.3397179306935566</v>
       </c>
       <c r="DQ4">
-        <v>0.3439312025384511</v>
+        <v>10.57945124359534</v>
       </c>
       <c r="DR4">
-        <v>15.60077076972466</v>
+        <v>0.3390369382196002</v>
       </c>
       <c r="DS4">
-        <v>7.23462133659437</v>
+        <v>16.80272453249136</v>
       </c>
       <c r="DT4">
-        <v>57.94744242586255</v>
+        <v>0.3349859958747576</v>
       </c>
       <c r="DU4">
-        <v>0.3954108108439344</v>
+        <v>0.3389648590278669</v>
       </c>
       <c r="DV4">
-        <v>419.3903641794271</v>
+        <v>10.80485233659518</v>
       </c>
       <c r="DW4">
-        <v>94.31955722941743</v>
+        <v>9.960592030988376</v>
       </c>
       <c r="DX4">
-        <v>34.33288559968143</v>
+        <v>0.3448050280677882</v>
       </c>
       <c r="DY4">
-        <v>700.2834201055066</v>
+        <v>0.3448259736044357</v>
       </c>
       <c r="DZ4">
-        <v>77.8623450091705</v>
+        <v>5.801871902973552</v>
       </c>
       <c r="EA4">
-        <v>0.3549110322296412</v>
+        <v>0.4015159823369774</v>
       </c>
       <c r="EB4">
-        <v>0.3501374460194753</v>
+        <v>0.3344957165076716</v>
       </c>
       <c r="EC4">
-        <v>62.32046277891448</v>
+        <v>0.340980576181664</v>
       </c>
       <c r="ED4">
-        <v>0.3336380468849144</v>
+        <v>0.3346861664561868</v>
       </c>
       <c r="EE4">
-        <v>0.4307238788975474</v>
+        <v>8.151245812825099</v>
       </c>
       <c r="EF4">
-        <v>31.96761284133917</v>
+        <v>0.3459651545984301</v>
       </c>
       <c r="EG4">
-        <v>34.60486748300471</v>
+        <v>21.89076056151723</v>
       </c>
       <c r="EH4">
-        <v>0.3401430024276876</v>
+        <v>48.18522143685787</v>
       </c>
       <c r="EI4">
-        <v>0.3350584036241567</v>
+        <v>18.50665909298022</v>
       </c>
       <c r="EJ4">
-        <v>21.33199380332696</v>
+        <v>6.717030110520407</v>
       </c>
       <c r="EK4">
-        <v>0.39409024864579</v>
+        <v>0.3378491572106334</v>
       </c>
       <c r="EL4">
-        <v>164.351660090597</v>
+        <v>0.3344917116165399</v>
       </c>
       <c r="EM4">
-        <v>0.3481839962875122</v>
+        <v>0.3397121890561126</v>
       </c>
       <c r="EN4">
-        <v>1035.3079495383</v>
+        <v>0.3398156109841272</v>
       </c>
       <c r="EO4">
-        <v>0.381912604618448</v>
+        <v>4.451680460755522</v>
       </c>
       <c r="EP4">
-        <v>0.3674152788178681</v>
+        <v>49.68847777509082</v>
       </c>
       <c r="EQ4">
-        <v>2984.454177787642</v>
+        <v>0.3356850534417309</v>
       </c>
       <c r="ER4">
-        <v>0.3351494449693204</v>
+        <v>0.3403353287925595</v>
       </c>
       <c r="ES4">
-        <v>0.3991049278916954</v>
+        <v>0.3352827296233379</v>
       </c>
       <c r="ET4">
-        <v>0.3486122313095596</v>
+        <v>0.3438542458912136</v>
       </c>
       <c r="EU4">
-        <v>0.3754765056597782</v>
+        <v>0.376044308544905</v>
       </c>
       <c r="EV4">
-        <v>28.35766565408678</v>
+        <v>0.3341884031658469</v>
       </c>
       <c r="EW4">
-        <v>380.3112487383597</v>
+        <v>39.8749531942366</v>
       </c>
       <c r="EX4">
-        <v>21.1467776766416</v>
+        <v>0.3973415085383328</v>
       </c>
       <c r="EY4">
-        <v>0.4020901479879291</v>
+        <v>0.3360814390969228</v>
       </c>
       <c r="EZ4">
-        <v>201.1224638862594</v>
+        <v>0.3430813727242291</v>
       </c>
       <c r="FA4">
-        <v>0.3341671048383378</v>
+        <v>0.3544044295660841</v>
       </c>
       <c r="FB4">
-        <v>46.25869339512225</v>
+        <v>0.334729143995952</v>
       </c>
       <c r="FC4">
-        <v>0.3415061368952599</v>
+        <v>9.85271326447357</v>
       </c>
       <c r="FD4">
-        <v>189.2318984194217</v>
+        <v>15.7762751755009</v>
       </c>
       <c r="FE4">
-        <v>17.76247386250977</v>
+        <v>0.344903793396507</v>
       </c>
       <c r="FF4">
-        <v>59.7866208973858</v>
+        <v>0.337593032270088</v>
       </c>
       <c r="FG4">
-        <v>0.3874567091303914</v>
+        <v>0.4186020843966448</v>
       </c>
       <c r="FH4">
-        <v>70.33068769860533</v>
+        <v>53.34241784989543</v>
       </c>
       <c r="FI4">
-        <v>0.3699528562813129</v>
+        <v>5.661908689176494</v>
       </c>
       <c r="FJ4">
-        <v>0.3359524968165823</v>
+        <v>19.96580555670189</v>
       </c>
       <c r="FK4">
-        <v>0.3689089012079903</v>
+        <v>23.43826123119378</v>
       </c>
       <c r="FL4">
-        <v>38.0110225628421</v>
+        <v>67.03648176679789</v>
       </c>
       <c r="FM4">
-        <v>23.80200742105122</v>
+        <v>5.431889150760853</v>
       </c>
       <c r="FN4">
-        <v>72.32382832454819</v>
+        <v>10.41459160384834</v>
       </c>
       <c r="FO4">
-        <v>12.30436997527928</v>
+        <v>0.339926945901778</v>
       </c>
       <c r="FP4">
-        <v>577.9018476471426</v>
+        <v>21.34633801660568</v>
       </c>
       <c r="FQ4">
-        <v>154.5744051717908</v>
+        <v>43.69072863446678</v>
       </c>
       <c r="FR4">
-        <v>0.3346019022940689</v>
+        <v>0.3377801394131809</v>
       </c>
       <c r="FS4">
-        <v>33.32834961398155</v>
+        <v>0.3409151519817105</v>
       </c>
       <c r="FT4">
-        <v>0.3610569948242582</v>
+        <v>0.3348471590667097</v>
       </c>
       <c r="FU4">
-        <v>9.224466057406525</v>
+        <v>0.3341804355376542</v>
       </c>
       <c r="FV4">
-        <v>0.3334265244005498</v>
+        <v>0.3434172238732237</v>
       </c>
       <c r="FW4">
-        <v>1707.502066583498</v>
+        <v>0.3389765314967478</v>
       </c>
       <c r="FX4">
-        <v>5.773177249192234</v>
+        <v>6.960197143637985</v>
       </c>
       <c r="FY4">
-        <v>43.07158110861329</v>
+        <v>0.3415800820787719</v>
       </c>
       <c r="FZ4">
-        <v>79.31829197359835</v>
+        <v>0.3466120844621279</v>
       </c>
       <c r="GA4">
-        <v>104.6068160918392</v>
+        <v>0.3526780999207269</v>
       </c>
       <c r="GB4">
-        <v>20.64832339317518</v>
+        <v>0.3421773656960604</v>
       </c>
       <c r="GC4">
-        <v>7.030175579128685</v>
+        <v>0.3350064517719459</v>
       </c>
       <c r="GD4">
-        <v>0.3333434629523175</v>
+        <v>9.76850717975732</v>
       </c>
       <c r="GE4">
-        <v>43.32895272866215</v>
+        <v>0.3380374691570994</v>
       </c>
       <c r="GF4">
-        <v>46.26938400806438</v>
+        <v>9.235895386927256</v>
       </c>
       <c r="GG4">
-        <v>136.2279144133598</v>
+        <v>0.3484904072169506</v>
       </c>
       <c r="GH4">
-        <v>39.28412746704826</v>
+        <v>0.3649160330421771</v>
       </c>
       <c r="GI4">
-        <v>58.32036896259486</v>
+        <v>0.3754098687845376</v>
       </c>
       <c r="GJ4">
-        <v>0.3351825321842069</v>
+        <v>0.3346420209982021</v>
       </c>
       <c r="GK4">
-        <v>60.59172347056695</v>
+        <v>0.4386105457900387</v>
       </c>
       <c r="GL4">
-        <v>44.35840937249534</v>
+        <v>12.60745931282379</v>
       </c>
       <c r="GM4">
-        <v>0.3343628025521813</v>
+        <v>6.080701612335745</v>
       </c>
       <c r="GN4">
-        <v>59.44811807494099</v>
+        <v>27.67756713049243</v>
       </c>
       <c r="GO4">
-        <v>143.2989641024227</v>
+        <v>1.279533831472097</v>
       </c>
       <c r="GP4">
-        <v>97.76445270240634</v>
+        <v>5.401501453358137</v>
       </c>
       <c r="GQ4">
-        <v>106.2549233031794</v>
+        <v>12.3662380954333</v>
       </c>
       <c r="GR4">
-        <v>26.9315651818402</v>
+        <v>10.89055517499975</v>
       </c>
       <c r="GS4">
-        <v>11.9393697120984</v>
+        <v>0.6779259670838287</v>
+      </c>
+      <c r="GT4">
+        <v>0.3376856445112739</v>
+      </c>
+      <c r="GU4">
+        <v>0.335597048338542</v>
+      </c>
+      <c r="GV4">
+        <v>0.3515642869180305</v>
+      </c>
+      <c r="GW4">
+        <v>0.3364626202469048</v>
+      </c>
+      <c r="GX4">
+        <v>0.3760137747764992</v>
+      </c>
+      <c r="GY4">
+        <v>22.04349512408385</v>
+      </c>
+      <c r="GZ4">
+        <v>0.353146675869748</v>
+      </c>
+      <c r="HA4">
+        <v>0.3553670560981822</v>
+      </c>
+      <c r="HB4">
+        <v>0.4044938279044282</v>
+      </c>
+      <c r="HC4">
+        <v>0.3422283643873214</v>
+      </c>
+      <c r="HD4">
+        <v>0.3505356846272748</v>
+      </c>
+      <c r="HE4">
+        <v>16.64561252699954</v>
+      </c>
+      <c r="HF4">
+        <v>0.3676836855560912</v>
+      </c>
+      <c r="HG4">
+        <v>0.3546594083492881</v>
+      </c>
+      <c r="HH4">
+        <v>5.666480737787135</v>
+      </c>
+      <c r="HI4">
+        <v>12.78149987611153</v>
+      </c>
+      <c r="HJ4">
+        <v>27.09768924340553</v>
+      </c>
+      <c r="HK4">
+        <v>0.4185691483319666</v>
+      </c>
+      <c r="HL4">
+        <v>0.3642101259702927</v>
+      </c>
+      <c r="HM4">
+        <v>0.3422241973306421</v>
+      </c>
+      <c r="HN4">
+        <v>1.036011487773675</v>
+      </c>
+      <c r="HO4">
+        <v>0.3470492942832719</v>
+      </c>
+      <c r="HP4">
+        <v>0.3590211806279507</v>
+      </c>
+      <c r="HQ4">
+        <v>0.3352328430078789</v>
+      </c>
+      <c r="HR4">
+        <v>1.421434788455568</v>
+      </c>
+      <c r="HS4">
+        <v>131.560971246193</v>
+      </c>
+      <c r="HT4">
+        <v>20.03829172377222</v>
+      </c>
+      <c r="HU4">
+        <v>0.3385455382018774</v>
+      </c>
+      <c r="HV4">
+        <v>22.69666502411197</v>
+      </c>
+      <c r="HW4">
+        <v>0.3711485007128316</v>
+      </c>
+      <c r="HX4">
+        <v>37.65733661735128</v>
+      </c>
+      <c r="HY4">
+        <v>7.45274428073972</v>
+      </c>
+      <c r="HZ4">
+        <v>0.3625700016996744</v>
+      </c>
+      <c r="IA4">
+        <v>4.007769807895611</v>
+      </c>
+      <c r="IB4">
+        <v>0.336132885920827</v>
+      </c>
+      <c r="IC4">
+        <v>0.6151771598056595</v>
+      </c>
+      <c r="ID4">
+        <v>48.30989775675402</v>
+      </c>
+      <c r="IE4">
+        <v>16.4219740972457</v>
+      </c>
+      <c r="IF4">
+        <v>0.3556413950335694</v>
+      </c>
+      <c r="IG4">
+        <v>0.3516743769047659</v>
+      </c>
+      <c r="IH4">
+        <v>0.3496950729396028</v>
+      </c>
+      <c r="II4">
+        <v>0.3747755361542149</v>
+      </c>
+      <c r="IJ4">
+        <v>44.62944877490502</v>
+      </c>
+      <c r="IK4">
+        <v>5.069596784248752</v>
+      </c>
+      <c r="IL4">
+        <v>3.605327458091613</v>
+      </c>
+      <c r="IM4">
+        <v>0.334324176508586</v>
+      </c>
+      <c r="IN4">
+        <v>0.3360624901177675</v>
+      </c>
+      <c r="IO4">
+        <v>2.866536289329205</v>
+      </c>
+      <c r="IP4">
+        <v>0.3351048330048207</v>
+      </c>
+      <c r="IQ4">
+        <v>18.05679531744143</v>
+      </c>
+      <c r="IR4">
+        <v>0.366214970921045</v>
+      </c>
+      <c r="IS4">
+        <v>0.335042871364141</v>
+      </c>
+      <c r="IT4">
+        <v>0.4208660445201077</v>
+      </c>
+      <c r="IU4">
+        <v>0.3353209161346476</v>
+      </c>
+      <c r="IV4">
+        <v>8.415247652939289</v>
+      </c>
+      <c r="IW4">
+        <v>8.201754931109976</v>
+      </c>
+      <c r="IX4">
+        <v>3.356870460467176</v>
+      </c>
+      <c r="IY4">
+        <v>0.3468975980287674</v>
+      </c>
+      <c r="IZ4">
+        <v>0.3409587633464025</v>
+      </c>
+      <c r="JA4">
+        <v>2.620265454370796</v>
+      </c>
+      <c r="JB4">
+        <v>0.3643803058003793</v>
+      </c>
+      <c r="JC4">
+        <v>7.777437026262721</v>
+      </c>
+      <c r="JD4">
+        <v>0.3462732283513894</v>
+      </c>
+      <c r="JE4">
+        <v>5.66931511067118</v>
+      </c>
+      <c r="JF4">
+        <v>0.3600391265024643</v>
+      </c>
+      <c r="JG4">
+        <v>0.3606842327817273</v>
+      </c>
+      <c r="JH4">
+        <v>0.3353816540136508</v>
+      </c>
+      <c r="JI4">
+        <v>6.526510793868818</v>
+      </c>
+      <c r="JJ4">
+        <v>51.12982594189072</v>
+      </c>
+      <c r="JK4">
+        <v>193.798136145166</v>
+      </c>
+      <c r="JL4">
+        <v>0.3421187944769178</v>
+      </c>
+      <c r="JM4">
+        <v>0.3602388992673059</v>
+      </c>
+      <c r="JN4">
+        <v>0.3367301085495738</v>
+      </c>
+      <c r="JO4">
+        <v>6.826398872979049</v>
+      </c>
+      <c r="JP4">
+        <v>106.6775240991111</v>
+      </c>
+      <c r="JQ4">
+        <v>10.57365901889063</v>
+      </c>
+      <c r="JR4">
+        <v>3.906868990924776</v>
+      </c>
+      <c r="JS4">
+        <v>0.4883903379754208</v>
+      </c>
+      <c r="JT4">
+        <v>0.3497420859975808</v>
+      </c>
+      <c r="JU4">
+        <v>44.43231640824952</v>
+      </c>
+      <c r="JV4">
+        <v>0.3794569820576009</v>
+      </c>
+      <c r="JW4">
+        <v>0.3487937159600289</v>
+      </c>
+      <c r="JX4">
+        <v>0.3380127467635301</v>
+      </c>
+      <c r="JY4">
+        <v>99.22829729204295</v>
+      </c>
+      <c r="JZ4">
+        <v>0.3417202452625887</v>
+      </c>
+      <c r="KA4">
+        <v>11.68558569106694</v>
+      </c>
+      <c r="KB4">
+        <v>0.3855264738891991</v>
+      </c>
+      <c r="KC4">
+        <v>9.681412242468424</v>
+      </c>
+      <c r="KD4">
+        <v>0.4925989680732966</v>
+      </c>
+      <c r="KE4">
+        <v>0.3388845863360848</v>
+      </c>
+      <c r="KF4">
+        <v>0.38023809869129</v>
+      </c>
+      <c r="KG4">
+        <v>5.515854752181941</v>
+      </c>
+      <c r="KH4">
+        <v>4.453232386710474</v>
+      </c>
+      <c r="KI4">
+        <v>19.59746461601363</v>
+      </c>
+      <c r="KJ4">
+        <v>38.35553694780337</v>
+      </c>
+      <c r="KK4">
+        <v>28.96326521456887</v>
+      </c>
+      <c r="KL4">
+        <v>0.3406937358275649</v>
+      </c>
+      <c r="KM4">
+        <v>0.3962923891221348</v>
+      </c>
+      <c r="KN4">
+        <v>8.849231141900839</v>
+      </c>
+      <c r="KO4">
+        <v>0.362464963941828</v>
+      </c>
+      <c r="KP4">
+        <v>12.46385259101276</v>
+      </c>
+      <c r="KQ4">
+        <v>0.3844290625595664</v>
+      </c>
+      <c r="KR4">
+        <v>7.863562536056217</v>
+      </c>
+      <c r="KS4">
+        <v>0.3411174700585906</v>
+      </c>
+      <c r="KT4">
+        <v>0.3342651004150889</v>
+      </c>
+      <c r="KU4">
+        <v>0.3795557361665861</v>
+      </c>
+      <c r="KV4">
+        <v>0.3426305993872608</v>
+      </c>
+      <c r="KW4">
+        <v>0.3350180320417162</v>
+      </c>
+      <c r="KX4">
+        <v>0.8536263942535518</v>
+      </c>
+      <c r="KY4">
+        <v>0.4237922117542564</v>
+      </c>
+      <c r="KZ4">
+        <v>5.248721281194855</v>
+      </c>
+      <c r="LA4">
+        <v>0.3547732110011073</v>
+      </c>
+      <c r="LB4">
+        <v>0.3342303885935906</v>
+      </c>
+      <c r="LC4">
+        <v>8.033320458750152</v>
+      </c>
+      <c r="LD4">
+        <v>27.71480094806835</v>
+      </c>
+      <c r="LE4">
+        <v>10.43809164812791</v>
+      </c>
+      <c r="LF4">
+        <v>12.89679189310526</v>
+      </c>
+      <c r="LG4">
+        <v>0.4060837599805499</v>
+      </c>
+      <c r="LH4">
+        <v>5.701077637694783</v>
+      </c>
+      <c r="LI4">
+        <v>6.116436206910269</v>
+      </c>
+      <c r="LJ4">
+        <v>16.26746457202389</v>
+      </c>
+      <c r="LK4">
+        <v>0.3755923352587255</v>
+      </c>
+      <c r="LL4">
+        <v>0.3380146206220591</v>
+      </c>
+      <c r="LM4">
+        <v>0.3384192787611727</v>
+      </c>
+      <c r="LN4">
+        <v>0.357414209340901</v>
+      </c>
+      <c r="LO4">
+        <v>0.3773163517401303</v>
+      </c>
+      <c r="LP4">
+        <v>0.7870945051096685</v>
+      </c>
+      <c r="LQ4">
+        <v>0.4055794989739643</v>
+      </c>
+      <c r="LR4">
+        <v>0.3343478361781532</v>
+      </c>
+      <c r="LS4">
+        <v>0.3346560901707088</v>
+      </c>
+      <c r="LT4">
+        <v>0.3913546886634945</v>
+      </c>
+      <c r="LU4">
+        <v>0.3341760355262588</v>
+      </c>
+      <c r="LV4">
+        <v>12.98163541815083</v>
+      </c>
+      <c r="LW4">
+        <v>7.536509530293416</v>
+      </c>
+      <c r="LX4">
+        <v>61.09208664585405</v>
+      </c>
+      <c r="LY4">
+        <v>47.58350866291933</v>
+      </c>
+      <c r="LZ4">
+        <v>0.3868139984080157</v>
+      </c>
+      <c r="MA4">
+        <v>2.771457314341864</v>
+      </c>
+      <c r="MB4">
+        <v>0.3362006005658177</v>
+      </c>
+      <c r="MC4">
+        <v>0.384498272808296</v>
+      </c>
+      <c r="MD4">
+        <v>15.39042239244172</v>
+      </c>
+      <c r="ME4">
+        <v>49.28778982785061</v>
+      </c>
+      <c r="MF4">
+        <v>25.8684068257226</v>
+      </c>
+      <c r="MG4">
+        <v>1.626767784923749</v>
+      </c>
+      <c r="MH4">
+        <v>0.4079001131842391</v>
+      </c>
+      <c r="MI4">
+        <v>0.3371356927251562</v>
+      </c>
+      <c r="MJ4">
+        <v>0.3553533771783587</v>
+      </c>
+      <c r="MK4">
+        <v>2.802874690509339</v>
+      </c>
+      <c r="ML4">
+        <v>10.15477509618426</v>
+      </c>
+      <c r="MM4">
+        <v>0.5069217560198623</v>
+      </c>
+      <c r="MN4">
+        <v>40.11155648848874</v>
+      </c>
+      <c r="MO4">
+        <v>0.3350263286100564</v>
+      </c>
+      <c r="MP4">
+        <v>0.3468769591864769</v>
+      </c>
+      <c r="MQ4">
+        <v>0.3545937793695074</v>
+      </c>
+      <c r="MR4">
+        <v>0.3462513443131697</v>
+      </c>
+      <c r="MS4">
+        <v>9.897691459801408</v>
+      </c>
+      <c r="MT4">
+        <v>0.3415720927117885</v>
+      </c>
+      <c r="MU4">
+        <v>0.3710655829110132</v>
+      </c>
+      <c r="MV4">
+        <v>4.26389548115065</v>
+      </c>
+      <c r="MW4">
+        <v>0.3401424059536312</v>
+      </c>
+      <c r="MX4">
+        <v>0.3403742963959329</v>
+      </c>
+      <c r="MY4">
+        <v>0.3848168316805253</v>
+      </c>
+      <c r="MZ4">
+        <v>21.95048997699769</v>
+      </c>
+      <c r="NA4">
+        <v>38.56503000997203</v>
+      </c>
+      <c r="NB4">
+        <v>0.3360028479304099</v>
+      </c>
+      <c r="NC4">
+        <v>24.04289883982333</v>
+      </c>
+      <c r="ND4">
+        <v>0.3358371052893903</v>
+      </c>
+      <c r="NE4">
+        <v>10.34921540371584</v>
+      </c>
+      <c r="NF4">
+        <v>0.7055293463534116</v>
+      </c>
+      <c r="NG4">
+        <v>64.36589269728671</v>
+      </c>
+      <c r="NH4">
+        <v>0.3369182101158247</v>
+      </c>
+      <c r="NI4">
+        <v>0.3786802425384712</v>
+      </c>
+      <c r="NJ4">
+        <v>0.336502495294041</v>
+      </c>
+      <c r="NK4">
+        <v>7.058965186526414</v>
+      </c>
+      <c r="NL4">
+        <v>7.99740189041708</v>
+      </c>
+      <c r="NM4">
+        <v>18.83005045169278</v>
+      </c>
+      <c r="NN4">
+        <v>22.92136511431622</v>
+      </c>
+      <c r="NO4">
+        <v>28.74152016046823</v>
+      </c>
+      <c r="NP4">
+        <v>0.3350323253874133</v>
+      </c>
+      <c r="NQ4">
+        <v>0.3390235395665241</v>
+      </c>
+      <c r="NR4">
+        <v>3.386129608004757</v>
+      </c>
+      <c r="NS4">
+        <v>79.27614527133845</v>
+      </c>
+      <c r="NT4">
+        <v>37.1389586056434</v>
+      </c>
+      <c r="NU4">
+        <v>9.303940220613274</v>
+      </c>
+      <c r="NV4">
+        <v>0.3347758198362499</v>
+      </c>
+      <c r="NW4">
+        <v>11.9513144042375</v>
+      </c>
+      <c r="NX4">
+        <v>0.3342053265184112</v>
+      </c>
+      <c r="NY4">
+        <v>6.722869030737042</v>
+      </c>
+      <c r="NZ4">
+        <v>0.3392911041637209</v>
+      </c>
+      <c r="OA4">
+        <v>0.3451872892101772</v>
+      </c>
+      <c r="OB4">
+        <v>0.4273196310530636</v>
+      </c>
+      <c r="OC4">
+        <v>0.4552624731273429</v>
+      </c>
+      <c r="OD4">
+        <v>0.3355924138075146</v>
+      </c>
+      <c r="OE4">
+        <v>41.3906740042514</v>
+      </c>
+      <c r="OF4">
+        <v>13.52020644124797</v>
+      </c>
+      <c r="OG4">
+        <v>16.98763507166184</v>
+      </c>
+      <c r="OH4">
+        <v>0.3663089623791579</v>
+      </c>
+      <c r="OI4">
+        <v>8.438728280827441</v>
+      </c>
+      <c r="OJ4">
+        <v>0.4023633130903753</v>
+      </c>
+      <c r="OK4">
+        <v>8.754050137615948</v>
       </c>
     </row>
   </sheetData>
